--- a/update_db/product.xlsx
+++ b/update_db/product.xlsx
@@ -7397,9 +7397,6 @@
     <t>apostol-i-evangelist-mark-08418;apostol-i-evangelist-mark-08418_2</t>
   </si>
   <si>
-    <t>arkhangel-mikhail-obrazok-08229;arkhangel-mikhail-obrazok-08229_2;arkhangel-mikhail-obrazok-08229_3</t>
-  </si>
-  <si>
     <t>arkhangel-mikhail-obrazok-08229-s;arkhangel-mikhail-obrazok-08229-s_2</t>
   </si>
   <si>
@@ -9303,6 +9300,9 @@
   </si>
   <si>
     <t>category_id</t>
+  </si>
+  <si>
+    <t>arkhangel-mikhail-obrazok-08229;arkhangel-mikhail-obrazok-08229_2</t>
   </si>
 </sst>
 </file>
@@ -9659,10 +9659,10 @@
   <dimension ref="A1:R612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E564" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H579" sqref="H579"/>
+      <selection pane="bottomRight" activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9680,16 +9680,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>617</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>618</v>
@@ -9780,7 +9780,7 @@
         <v>13</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="Q2" t="s">
         <v>132</v>
@@ -9839,7 +9839,7 @@
         <v>530</v>
       </c>
       <c r="R3" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9990,7 +9990,7 @@
         <v>13</v>
       </c>
       <c r="P6" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="Q6" t="s">
         <v>1418</v>
@@ -10040,7 +10040,7 @@
         <v>3750</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
@@ -10102,7 +10102,7 @@
         <v>13</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="Q8" t="s">
         <v>132</v>
@@ -10157,10 +10157,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="R9" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -10204,7 +10204,7 @@
         <v>1200</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>999</v>
@@ -10268,13 +10268,13 @@
         <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="Q11" t="s">
         <v>686</v>
       </c>
       <c r="R11" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10318,7 +10318,7 @@
         <v>3000</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
@@ -10375,14 +10375,14 @@
         <v>1500</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q13" t="s">
         <v>996</v>
@@ -10432,7 +10432,7 @@
         <v>1550</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
@@ -10541,7 +10541,7 @@
         <v>1500</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
@@ -10598,7 +10598,7 @@
         <v>2300</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
@@ -10710,14 +10710,14 @@
         <v>2300</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="Q19" t="s">
         <v>926</v>
@@ -10767,14 +10767,14 @@
         <v>2400</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q20" t="s">
         <v>948</v>
@@ -10824,14 +10824,14 @@
         <v>2400</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="Q21" t="s">
         <v>948</v>
@@ -10881,7 +10881,7 @@
         <v>2400</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
@@ -10938,14 +10938,14 @@
         <v>2400</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q23" t="s">
         <v>965</v>
@@ -10995,14 +10995,14 @@
         <v>2400</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q24" t="s">
         <v>965</v>
@@ -11162,14 +11162,14 @@
         <v>2400</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q27" t="s">
         <v>991</v>
@@ -11219,14 +11219,14 @@
         <v>2400</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q28" t="s">
         <v>992</v>
@@ -11276,7 +11276,7 @@
         <v>2400</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
@@ -11388,7 +11388,7 @@
         <v>1900</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
@@ -11445,7 +11445,7 @@
         <v>3200</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
@@ -11667,7 +11667,7 @@
         <v>2400</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
@@ -11724,7 +11724,7 @@
         <v>2400</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
@@ -11836,7 +11836,7 @@
         <v>2400</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
@@ -11893,14 +11893,14 @@
         <v>2500</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="Q40" t="s">
         <v>935</v>
@@ -11950,14 +11950,14 @@
         <v>2500</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="Q41" t="s">
         <v>937</v>
@@ -12007,7 +12007,7 @@
         <v>2500</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
@@ -12284,7 +12284,7 @@
         <v>2500</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
@@ -12341,7 +12341,7 @@
         <v>2500</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
@@ -12398,7 +12398,7 @@
         <v>2500</v>
       </c>
       <c r="M49" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="O49" t="s">
         <v>31</v>
@@ -12454,7 +12454,7 @@
         <v>2500</v>
       </c>
       <c r="M50" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="O50" t="s">
         <v>31</v>
@@ -12510,7 +12510,7 @@
         <v>2500</v>
       </c>
       <c r="M51" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="O51" t="s">
         <v>13</v>
@@ -12566,7 +12566,7 @@
         <v>2500</v>
       </c>
       <c r="M52" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="O52" t="s">
         <v>46</v>
@@ -12785,7 +12785,7 @@
         <v>2600</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
@@ -13062,7 +13062,7 @@
         <v>2600</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
@@ -13119,7 +13119,7 @@
         <v>2600</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
@@ -13176,7 +13176,7 @@
         <v>2600</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
@@ -13233,7 +13233,7 @@
         <v>2600</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
@@ -13290,7 +13290,7 @@
         <v>2800</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
@@ -13347,7 +13347,7 @@
         <v>2800</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
@@ -13404,7 +13404,7 @@
         <v>2700</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
@@ -13461,7 +13461,7 @@
         <v>2880</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
@@ -13518,14 +13518,14 @@
         <v>2900</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q69" t="s">
         <v>938</v>
@@ -13630,10 +13630,10 @@
         <v>2460</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>12</v>
@@ -13694,13 +13694,13 @@
         <v>13</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="Q72" t="s">
         <v>693</v>
       </c>
       <c r="R72" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,7 +13744,7 @@
         <v>3150</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
@@ -13966,16 +13966,16 @@
         <v>400</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="Q77" t="s">
         <v>977</v>
@@ -14025,7 +14025,7 @@
         <v>1040</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
@@ -14188,7 +14188,7 @@
         <v>960</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
@@ -14245,7 +14245,7 @@
         <v>1040</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
@@ -14302,7 +14302,7 @@
         <v>1600</v>
       </c>
       <c r="M83" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>12</v>
@@ -14314,7 +14314,7 @@
         <v>1454</v>
       </c>
       <c r="R83" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14358,7 +14358,7 @@
         <v>1620</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>999</v>
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>1841</v>
@@ -14422,7 +14422,7 @@
         <v>13</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q85" t="s">
         <v>645</v>
@@ -14472,7 +14472,7 @@
         <v>4320</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3" t="s">
@@ -14496,7 +14496,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>1842</v>
@@ -14534,7 +14534,7 @@
         <v>13</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q87" t="s">
         <v>646</v>
@@ -14584,14 +14584,14 @@
         <v>2900</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q88" t="s">
         <v>954</v>
@@ -14641,14 +14641,14 @@
         <v>2900</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q89" t="s">
         <v>956</v>
@@ -14665,7 +14665,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>1843</v>
@@ -14703,7 +14703,7 @@
         <v>13</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q90" t="s">
         <v>647</v>
@@ -14753,7 +14753,7 @@
         <v>2300</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
@@ -14810,11 +14810,11 @@
         <v>5100</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>901</v>
@@ -14823,7 +14823,7 @@
         <v>987</v>
       </c>
       <c r="R92" t="s">
-        <v>2456</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14867,7 +14867,7 @@
         <v>1700</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3" t="s">
@@ -14880,7 +14880,7 @@
         <v>988</v>
       </c>
       <c r="R93" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14935,7 +14935,7 @@
         <v>490</v>
       </c>
       <c r="R94" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14979,7 +14979,7 @@
         <v>720</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3" t="s">
@@ -14992,7 +14992,7 @@
         <v>990</v>
       </c>
       <c r="R95" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15036,14 +15036,14 @@
         <v>2900</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q96" t="s">
         <v>956</v>
@@ -15093,14 +15093,14 @@
         <v>2900</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q97" t="s">
         <v>959</v>
@@ -15150,7 +15150,7 @@
         <v>1340</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3" t="s">
@@ -15163,7 +15163,7 @@
         <v>994</v>
       </c>
       <c r="R98" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15207,14 +15207,14 @@
         <v>2900</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="Q99" t="s">
         <v>959</v>
@@ -15269,7 +15269,7 @@
         <v>13</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q100" t="s">
         <v>961</v>
@@ -15319,7 +15319,7 @@
         <v>2900</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3" t="s">
@@ -15376,7 +15376,7 @@
         <v>2900</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3" t="s">
@@ -15389,7 +15389,7 @@
         <v>1015</v>
       </c>
       <c r="R102" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15433,7 +15433,7 @@
         <v>2900</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3" t="s">
@@ -15446,7 +15446,7 @@
         <v>1017</v>
       </c>
       <c r="R103" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15457,7 +15457,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>1844</v>
@@ -15497,7 +15497,7 @@
         <v>13</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q104" t="s">
         <v>911</v>
@@ -15602,7 +15602,7 @@
         <v>2900</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3" t="s">
@@ -15659,7 +15659,7 @@
         <v>2140</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3" t="s">
@@ -15672,7 +15672,7 @@
         <v>1004</v>
       </c>
       <c r="R107" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15716,7 +15716,7 @@
         <v>2900</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3" t="s">
@@ -15729,7 +15729,7 @@
         <v>1031</v>
       </c>
       <c r="R108" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15773,7 +15773,7 @@
         <v>1800</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="N109" s="3" t="s">
         <v>999</v>
@@ -15782,13 +15782,13 @@
         <v>13</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="Q109" t="s">
         <v>1000</v>
       </c>
       <c r="R109" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15837,7 +15837,7 @@
         <v>919</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q110" t="s">
         <v>25</v>
@@ -15887,7 +15887,7 @@
         <v>1840</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
@@ -15900,7 +15900,7 @@
         <v>1007</v>
       </c>
       <c r="R111" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>13</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q112" t="s">
         <v>199</v>
@@ -16004,7 +16004,7 @@
         <v>13</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q113" t="s">
         <v>220</v>
@@ -16054,7 +16054,7 @@
         <v>2900</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3" t="s">
@@ -16111,7 +16111,7 @@
         <v>2900</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3" t="s">
@@ -16173,7 +16173,7 @@
         <v>13</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q116" t="s">
         <v>44</v>
@@ -16228,7 +16228,7 @@
         <v>13</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q117" t="s">
         <v>222</v>
@@ -16278,7 +16278,7 @@
         <v>2000</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3" t="s">
@@ -16291,7 +16291,7 @@
         <v>1012</v>
       </c>
       <c r="R118" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>13</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q119" t="s">
         <v>222</v>
@@ -16390,7 +16390,7 @@
         <v>5350</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3" t="s">
@@ -16403,7 +16403,7 @@
         <v>1014</v>
       </c>
       <c r="R120" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
         <v>13</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q121" t="s">
         <v>70</v>
@@ -16507,7 +16507,7 @@
         <v>13</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q122" t="s">
         <v>224</v>
@@ -16557,7 +16557,7 @@
         <v>2900</v>
       </c>
       <c r="M123" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="O123" t="s">
         <v>13</v>
@@ -16569,7 +16569,7 @@
         <v>1450</v>
       </c>
       <c r="R123" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16613,7 +16613,7 @@
         <v>3000</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
@@ -16670,7 +16670,7 @@
         <v>3350</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="N125" s="3"/>
       <c r="O125" s="3" t="s">
@@ -16683,7 +16683,7 @@
         <v>1016</v>
       </c>
       <c r="R125" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16727,7 +16727,7 @@
         <v>3000</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="N126" s="3"/>
       <c r="O126" s="3" t="s">
@@ -16784,7 +16784,7 @@
         <v>3000</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="N127" s="3"/>
       <c r="O127" s="3" t="s">
@@ -16841,7 +16841,7 @@
         <v>3000</v>
       </c>
       <c r="M128" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="O128" t="s">
         <v>13</v>
@@ -16894,14 +16894,14 @@
         <v>3300</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N129" s="3"/>
       <c r="O129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="Q129" t="s">
         <v>915</v>
@@ -16951,14 +16951,14 @@
         <v>3300</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q130" t="s">
         <v>932</v>
@@ -17013,7 +17013,7 @@
         <v>13</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q131" t="s">
         <v>224</v>
@@ -17068,7 +17068,7 @@
         <v>919</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q132" t="s">
         <v>74</v>
@@ -17118,7 +17118,7 @@
         <v>4600</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="N133" s="3"/>
       <c r="O133" s="3" t="s">
@@ -17131,7 +17131,7 @@
         <v>1021</v>
       </c>
       <c r="R133" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="G134" s="3" t="str">
         <f t="shared" si="6"/>
@@ -17182,13 +17182,13 @@
         <v>13</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q134" t="s">
         <v>1024</v>
       </c>
       <c r="R134" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17237,10 +17237,10 @@
         <v>13</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="R135" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17260,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="G136" s="3" t="str">
         <f t="shared" si="6"/>
@@ -17289,13 +17289,13 @@
         <v>13</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q136" t="s">
         <v>5</v>
       </c>
       <c r="R136" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>1029</v>
       </c>
       <c r="R137" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17396,14 +17396,14 @@
         <v>3300</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="Q138" t="s">
         <v>947</v>
@@ -17453,14 +17453,14 @@
         <v>3300</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q139" t="s">
         <v>952</v>
@@ -17510,14 +17510,14 @@
         <v>3300</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q140" t="s">
         <v>953</v>
@@ -17572,7 +17572,7 @@
         <v>13</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q141" t="s">
         <v>84</v>
@@ -17622,14 +17622,14 @@
         <v>3300</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N142" s="3"/>
       <c r="O142" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="Q142" t="s">
         <v>958</v>
@@ -17679,14 +17679,14 @@
         <v>3300</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q143" t="s">
         <v>963</v>
@@ -17741,7 +17741,7 @@
         <v>13</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q144" t="s">
         <v>86</v>
@@ -17796,7 +17796,7 @@
         <v>13</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q145" t="s">
         <v>86</v>
@@ -17851,7 +17851,7 @@
         <v>13</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q146" t="s">
         <v>90</v>
@@ -17963,7 +17963,7 @@
         <v>13</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q148" t="s">
         <v>95</v>
@@ -18018,7 +18018,7 @@
         <v>13</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q149" t="s">
         <v>99</v>
@@ -18073,7 +18073,7 @@
         <v>1011</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q150" t="s">
         <v>102</v>
@@ -18128,7 +18128,7 @@
         <v>13</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q151" t="s">
         <v>106</v>
@@ -18178,14 +18178,14 @@
         <v>3300</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q152" t="s">
         <v>966</v>
@@ -18235,14 +18235,14 @@
         <v>3300</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="Q153" t="s">
         <v>967</v>
@@ -18292,14 +18292,14 @@
         <v>3300</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q154" t="s">
         <v>968</v>
@@ -18354,7 +18354,7 @@
         <v>13</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q155" t="s">
         <v>106</v>
@@ -18461,14 +18461,14 @@
         <v>3300</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N157" s="3"/>
       <c r="O157" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q157" t="s">
         <v>970</v>
@@ -18525,7 +18525,7 @@
         <v>13</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="Q158" t="s">
         <v>1049</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="P159" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q159" t="s">
         <v>121</v>
@@ -18630,7 +18630,7 @@
         <v>2600</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3" t="s">
@@ -18643,7 +18643,7 @@
         <v>1050</v>
       </c>
       <c r="R160" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>13</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="Q161" t="s">
         <v>689</v>
@@ -18742,14 +18742,14 @@
         <v>3300</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N162" s="3"/>
       <c r="O162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q162" t="s">
         <v>982</v>
@@ -18799,7 +18799,7 @@
         <v>7430</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N163" s="3"/>
       <c r="O163" s="3" t="s">
@@ -18812,7 +18812,7 @@
         <v>1055</v>
       </c>
       <c r="R163" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18861,7 +18861,7 @@
         <v>13</v>
       </c>
       <c r="P164" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q164" t="s">
         <v>696</v>
@@ -18971,7 +18971,7 @@
         <v>13</v>
       </c>
       <c r="P166" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q166" t="s">
         <v>699</v>
@@ -19026,7 +19026,7 @@
         <v>13</v>
       </c>
       <c r="P167" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q167" t="s">
         <v>699</v>
@@ -19076,14 +19076,14 @@
         <v>3300</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="N168" s="3"/>
       <c r="O168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P168" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q168" t="s">
         <v>983</v>
@@ -19133,7 +19133,7 @@
         <v>2720</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3" t="s">
@@ -19146,7 +19146,7 @@
         <v>1060</v>
       </c>
       <c r="R169" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19190,7 +19190,7 @@
         <v>3300</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="N170" s="3"/>
       <c r="O170" s="3" t="s">
@@ -19252,7 +19252,7 @@
         <v>13</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q171" t="s">
         <v>160</v>
@@ -19307,7 +19307,7 @@
         <v>13</v>
       </c>
       <c r="P172" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q172" t="s">
         <v>160</v>
@@ -19362,7 +19362,7 @@
         <v>13</v>
       </c>
       <c r="P173" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q173" t="s">
         <v>173</v>
@@ -19415,7 +19415,7 @@
         <v>13</v>
       </c>
       <c r="P174" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q174" t="s">
         <v>185</v>
@@ -19465,7 +19465,7 @@
         <v>2700</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3" t="s">
@@ -19478,7 +19478,7 @@
         <v>1063</v>
       </c>
       <c r="R175" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19522,7 +19522,7 @@
         <v>9300</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3" t="s">
@@ -19535,7 +19535,7 @@
         <v>1065</v>
       </c>
       <c r="R176" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19579,7 +19579,7 @@
         <v>3380</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="N177" s="3"/>
       <c r="O177" s="3" t="s">
@@ -19592,7 +19592,7 @@
         <v>1066</v>
       </c>
       <c r="R177" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19636,7 +19636,7 @@
         <v>4500</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="N178" s="3"/>
       <c r="O178" s="3" t="s">
@@ -19649,7 +19649,7 @@
         <v>1067</v>
       </c>
       <c r="R178" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19693,7 +19693,7 @@
         <v>8160</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="N179" s="3"/>
       <c r="O179" s="3" t="s">
@@ -19706,7 +19706,7 @@
         <v>1068</v>
       </c>
       <c r="R179" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19750,7 +19750,7 @@
         <v>10980</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="N180" s="3"/>
       <c r="O180" s="3" t="s">
@@ -19763,7 +19763,7 @@
         <v>1070</v>
       </c>
       <c r="R180" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19807,7 +19807,7 @@
         <v>2800</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3" t="s">
@@ -19820,7 +19820,7 @@
         <v>1072</v>
       </c>
       <c r="R181" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="182" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19864,7 +19864,7 @@
         <v>1560</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3" t="s">
@@ -19877,7 +19877,7 @@
         <v>1074</v>
       </c>
       <c r="R182" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19921,7 +19921,7 @@
         <v>1850</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3" t="s">
@@ -19934,7 +19934,7 @@
         <v>1072</v>
       </c>
       <c r="R183" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19981,7 +19981,7 @@
         <v>13</v>
       </c>
       <c r="P184" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q184" t="s">
         <v>185</v>
@@ -20034,7 +20034,7 @@
         <v>13</v>
       </c>
       <c r="P185" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q185" t="s">
         <v>710</v>
@@ -20084,7 +20084,7 @@
         <v>3900</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="N186" s="3"/>
       <c r="O186" s="3" t="s">
@@ -20097,7 +20097,7 @@
         <v>1076</v>
       </c>
       <c r="R186" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20141,10 +20141,10 @@
         <v>2200</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>12</v>
@@ -20156,7 +20156,7 @@
         <v>1077</v>
       </c>
       <c r="R187" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20200,10 +20200,10 @@
         <v>5500</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>12</v>
@@ -20215,7 +20215,7 @@
         <v>1078</v>
       </c>
       <c r="R188" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20262,7 +20262,7 @@
         <v>13</v>
       </c>
       <c r="P189" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q189" t="s">
         <v>710</v>
@@ -20374,7 +20374,7 @@
         <v>919</v>
       </c>
       <c r="P191" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q191" t="s">
         <v>55</v>
@@ -20424,7 +20424,7 @@
         <v>3300</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N192" s="3"/>
       <c r="O192" s="3" t="s">
@@ -20481,7 +20481,7 @@
         <v>3300</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3" t="s">
@@ -20538,7 +20538,7 @@
         <v>3300</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N194" s="3"/>
       <c r="O194" s="3" t="s">
@@ -20595,7 +20595,7 @@
         <v>3300</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3" t="s">
@@ -20652,7 +20652,7 @@
         <v>3300</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N196" s="3"/>
       <c r="O196" s="3" t="s">
@@ -20665,7 +20665,7 @@
         <v>1086</v>
       </c>
       <c r="R196" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="197" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20768,7 +20768,7 @@
         <v>1700</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="N198" s="3"/>
       <c r="O198" s="3" t="s">
@@ -20781,7 +20781,7 @@
         <v>1089</v>
       </c>
       <c r="R198" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="199" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20825,7 +20825,7 @@
         <v>3300</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3" t="s">
@@ -20882,7 +20882,7 @@
         <v>3300</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3" t="s">
@@ -20950,7 +20950,7 @@
         <v>606</v>
       </c>
       <c r="R201" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="202" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21005,7 +21005,7 @@
         <v>734</v>
       </c>
       <c r="R202" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="203" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21049,7 +21049,7 @@
         <v>3900</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="N203" s="3"/>
       <c r="O203" s="3" t="s">
@@ -21062,7 +21062,7 @@
         <v>734</v>
       </c>
       <c r="R203" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="204" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21106,7 +21106,7 @@
         <v>2060</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="N204" s="3"/>
       <c r="O204" s="3" t="s">
@@ -21119,7 +21119,7 @@
         <v>1094</v>
       </c>
       <c r="R204" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21163,7 +21163,7 @@
         <v>3300</v>
       </c>
       <c r="M205" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="O205" t="s">
         <v>31</v>
@@ -21222,7 +21222,7 @@
         <v>919</v>
       </c>
       <c r="P206" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q206" t="s">
         <v>55</v>
@@ -21277,7 +21277,7 @@
         <v>13</v>
       </c>
       <c r="P207" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="R207" t="s">
         <v>2425</v>
@@ -21324,7 +21324,7 @@
         <v>3910</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3" t="s">
@@ -21337,7 +21337,7 @@
         <v>734</v>
       </c>
       <c r="R208" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21381,7 +21381,7 @@
         <v>3150</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3" t="s">
@@ -21394,7 +21394,7 @@
         <v>1096</v>
       </c>
       <c r="R209" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21443,10 +21443,10 @@
         <v>13</v>
       </c>
       <c r="P210" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="R210" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="211" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21543,7 +21543,7 @@
         <v>5150</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3" t="s">
@@ -21556,7 +21556,7 @@
         <v>1098</v>
       </c>
       <c r="R212" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="213" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21600,7 +21600,7 @@
         <v>3300</v>
       </c>
       <c r="M213" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="O213" t="s">
         <v>13</v>
@@ -21667,7 +21667,7 @@
         <v>740</v>
       </c>
       <c r="R214" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21722,7 +21722,7 @@
         <v>740</v>
       </c>
       <c r="R215" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21766,20 +21766,20 @@
         <v>4400</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q216" t="s">
         <v>1101</v>
       </c>
       <c r="R216" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="217" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21878,7 +21878,7 @@
         <v>2200</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3" t="s">
@@ -21891,7 +21891,7 @@
         <v>1104</v>
       </c>
       <c r="R218" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="219" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21935,7 +21935,7 @@
         <v>2250</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3" t="s">
@@ -21948,7 +21948,7 @@
         <v>1105</v>
       </c>
       <c r="R219" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="220" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21992,7 +21992,7 @@
         <v>1900</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3" t="s">
@@ -22005,7 +22005,7 @@
         <v>1106</v>
       </c>
       <c r="R220" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="221" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22049,20 +22049,20 @@
         <v>1800</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q221" t="s">
         <v>1108</v>
       </c>
       <c r="R221" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="222" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22106,20 +22106,20 @@
         <v>2250</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q222" t="s">
         <v>1109</v>
       </c>
       <c r="R222" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="223" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22174,7 +22174,7 @@
         <v>1110</v>
       </c>
       <c r="R223" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="224" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22218,7 +22218,7 @@
         <v>3500</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="N224" s="3"/>
       <c r="O224" s="3" t="s">
@@ -22231,7 +22231,7 @@
         <v>1111</v>
       </c>
       <c r="R224" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="225" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22275,7 +22275,7 @@
         <v>6050</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="N225" s="3"/>
       <c r="O225" s="3" t="s">
@@ -22288,7 +22288,7 @@
         <v>1113</v>
       </c>
       <c r="R225" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="226" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22332,7 +22332,7 @@
         <v>2600</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="N226" s="3"/>
       <c r="O226" s="3" t="s">
@@ -22389,7 +22389,7 @@
         <v>7200</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="N227" s="3"/>
       <c r="O227" s="3" t="s">
@@ -22402,7 +22402,7 @@
         <v>1117</v>
       </c>
       <c r="R227" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="228" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22501,7 +22501,7 @@
         <v>4350</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="N229" s="3"/>
       <c r="O229" s="3" t="s">
@@ -22514,7 +22514,7 @@
         <v>1119</v>
       </c>
       <c r="R229" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="230" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22558,20 +22558,20 @@
         <v>9050</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="N230" s="3"/>
       <c r="O230" s="3" t="s">
         <v>919</v>
       </c>
       <c r="P230" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q230" t="s">
         <v>1121</v>
       </c>
       <c r="R230" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="231" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22615,7 +22615,7 @@
         <v>2950</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="N231" s="3"/>
       <c r="O231" s="3" t="s">
@@ -22628,7 +22628,7 @@
         <v>1123</v>
       </c>
       <c r="R231" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="232" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22672,7 +22672,7 @@
         <v>2500</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N232" s="3"/>
       <c r="O232" s="3" t="s">
@@ -22685,7 +22685,7 @@
         <v>1124</v>
       </c>
       <c r="R232" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="233" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22729,7 +22729,7 @@
         <v>1720</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="N233" s="3"/>
       <c r="O233" s="3" t="s">
@@ -22786,7 +22786,7 @@
         <v>3600</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="N234" s="3"/>
       <c r="O234" s="3" t="s">
@@ -22799,7 +22799,7 @@
         <v>1127</v>
       </c>
       <c r="R234" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="235" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22843,20 +22843,20 @@
         <v>6700</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="N235" s="3"/>
       <c r="O235" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P235" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q235" t="s">
         <v>1129</v>
       </c>
       <c r="R235" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="236" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22900,20 +22900,20 @@
         <v>5850</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="N236" s="3"/>
       <c r="O236" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P236" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q236" t="s">
         <v>1131</v>
       </c>
       <c r="R236" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="237" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22957,7 +22957,7 @@
         <v>1260</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="N237" s="3"/>
       <c r="O237" s="3" t="s">
@@ -23014,7 +23014,7 @@
         <v>2200</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="N238" s="3"/>
       <c r="O238" s="3" t="s">
@@ -23027,7 +23027,7 @@
         <v>1133</v>
       </c>
       <c r="R238" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="239" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23071,7 +23071,7 @@
         <v>3050</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="N239" s="3"/>
       <c r="O239" s="3" t="s">
@@ -23084,7 +23084,7 @@
         <v>1134</v>
       </c>
       <c r="R239" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="240" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23128,7 +23128,7 @@
         <v>1220</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="N240" s="3"/>
       <c r="O240" s="3" t="s">
@@ -23141,7 +23141,7 @@
         <v>1135</v>
       </c>
       <c r="R240" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="241" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23185,7 +23185,7 @@
         <v>2750</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="N241" s="3"/>
       <c r="O241" s="3" t="s">
@@ -23198,7 +23198,7 @@
         <v>1136</v>
       </c>
       <c r="R241" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="242" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23242,20 +23242,20 @@
         <v>5500</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q242" t="s">
         <v>1137</v>
       </c>
       <c r="R242" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="243" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23299,7 +23299,7 @@
         <v>4400</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="N243" s="3"/>
       <c r="O243" s="3" t="s">
@@ -23312,7 +23312,7 @@
         <v>1139</v>
       </c>
       <c r="R243" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="244" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23356,7 +23356,7 @@
         <v>1800</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="N244" s="3"/>
       <c r="O244" s="3" t="s">
@@ -23413,7 +23413,7 @@
         <v>6100</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="N245" s="3"/>
       <c r="O245" s="3" t="s">
@@ -23426,7 +23426,7 @@
         <v>1142</v>
       </c>
       <c r="R245" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="246" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23470,7 +23470,7 @@
         <v>2440</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="N246" s="3"/>
       <c r="O246" s="3" t="s">
@@ -23483,7 +23483,7 @@
         <v>1142</v>
       </c>
       <c r="R246" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23527,20 +23527,20 @@
         <v>7250</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="N247" s="3"/>
       <c r="O247" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q247" t="s">
         <v>1143</v>
       </c>
       <c r="R247" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23589,13 +23589,13 @@
         <v>13</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q248" t="s">
         <v>1145</v>
       </c>
       <c r="R248" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23639,7 +23639,7 @@
         <v>7450</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="N249" s="3"/>
       <c r="O249" s="3" t="s">
@@ -23652,7 +23652,7 @@
         <v>1147</v>
       </c>
       <c r="R249" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23696,7 +23696,7 @@
         <v>5200</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="N250" s="3"/>
       <c r="O250" s="3" t="s">
@@ -23709,7 +23709,7 @@
         <v>1148</v>
       </c>
       <c r="R250" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23764,7 +23764,7 @@
         <v>433</v>
       </c>
       <c r="R251" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23819,7 +23819,7 @@
         <v>1151</v>
       </c>
       <c r="R252" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23863,7 +23863,7 @@
         <v>2950</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="N253" s="3"/>
       <c r="O253" s="3" t="s">
@@ -23876,7 +23876,7 @@
         <v>1152</v>
       </c>
       <c r="R253" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23920,7 +23920,7 @@
         <v>5500</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="N254" s="3"/>
       <c r="O254" s="3" t="s">
@@ -23933,7 +23933,7 @@
         <v>1153</v>
       </c>
       <c r="R254" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23977,20 +23977,20 @@
         <v>13400</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="N255" s="3"/>
       <c r="O255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="Q255" t="s">
         <v>1154</v>
       </c>
       <c r="R255" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24034,7 +24034,7 @@
         <v>2200</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="N256" s="3"/>
       <c r="O256" s="3" t="s">
@@ -24047,7 +24047,7 @@
         <v>1155</v>
       </c>
       <c r="R256" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="257" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24102,7 +24102,7 @@
         <v>751</v>
       </c>
       <c r="R257" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24157,7 +24157,7 @@
         <v>751</v>
       </c>
       <c r="R258" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="259" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24201,10 +24201,10 @@
         <v>10400</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="O259" s="3" t="s">
         <v>12</v>
@@ -24216,7 +24216,7 @@
         <v>1158</v>
       </c>
       <c r="R259" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="260" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24260,7 +24260,7 @@
         <v>2350</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N260" s="3"/>
       <c r="O260" s="3" t="s">
@@ -24273,7 +24273,7 @@
         <v>1160</v>
       </c>
       <c r="R260" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="261" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24317,7 +24317,7 @@
         <v>940</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N261" s="3"/>
       <c r="O261" s="3" t="s">
@@ -24330,7 +24330,7 @@
         <v>1161</v>
       </c>
       <c r="R261" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24374,20 +24374,20 @@
         <v>4400</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="N262" s="3"/>
       <c r="O262" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P262" s="3" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="Q262" t="s">
         <v>1163</v>
       </c>
       <c r="R262" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24436,13 +24436,13 @@
         <v>13</v>
       </c>
       <c r="P263" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q263" t="s">
         <v>281</v>
       </c>
       <c r="R263" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24486,7 +24486,7 @@
         <v>4150</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="N264" s="3"/>
       <c r="O264" s="3" t="s">
@@ -24499,7 +24499,7 @@
         <v>1166</v>
       </c>
       <c r="R264" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24543,7 +24543,7 @@
         <v>1660</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="N265" s="3"/>
       <c r="O265" s="3" t="s">
@@ -24556,7 +24556,7 @@
         <v>1167</v>
       </c>
       <c r="R265" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24611,7 +24611,7 @@
         <v>497</v>
       </c>
       <c r="R266" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24655,7 +24655,7 @@
         <v>2300</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="N267" s="3"/>
       <c r="O267" s="3" t="s">
@@ -24668,7 +24668,7 @@
         <v>1168</v>
       </c>
       <c r="R267" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24712,7 +24712,7 @@
         <v>2400</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="N268" s="3"/>
       <c r="O268" s="3" t="s">
@@ -24725,7 +24725,7 @@
         <v>1169</v>
       </c>
       <c r="R268" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24769,7 +24769,7 @@
         <v>3550</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="N269" s="3"/>
       <c r="O269" s="3" t="s">
@@ -24782,7 +24782,7 @@
         <v>1171</v>
       </c>
       <c r="R269" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24826,7 +24826,7 @@
         <v>2450</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="N270" s="3"/>
       <c r="O270" s="3" t="s">
@@ -24839,7 +24839,7 @@
         <v>1172</v>
       </c>
       <c r="R270" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24883,7 +24883,7 @@
         <v>3840</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="N271" s="3"/>
       <c r="O271" s="3" t="s">
@@ -24896,7 +24896,7 @@
         <v>1173</v>
       </c>
       <c r="R271" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24940,7 +24940,7 @@
         <v>1280</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="N272" s="3"/>
       <c r="O272" s="3" t="s">
@@ -24953,7 +24953,7 @@
         <v>1174</v>
       </c>
       <c r="R272" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="273" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25008,7 +25008,7 @@
         <v>503</v>
       </c>
       <c r="R273" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="274" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25052,7 +25052,7 @@
         <v>1800</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="N274" s="3"/>
       <c r="O274" s="3" t="s">
@@ -25065,7 +25065,7 @@
         <v>1175</v>
       </c>
       <c r="R274" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="275" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25120,7 +25120,7 @@
         <v>760</v>
       </c>
       <c r="R275" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="276" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25175,7 +25175,7 @@
         <v>762</v>
       </c>
       <c r="R276" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="277" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25219,7 +25219,7 @@
         <v>1700</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N277" s="3"/>
       <c r="O277" s="3" t="s">
@@ -25232,7 +25232,7 @@
         <v>1176</v>
       </c>
       <c r="R277" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="278" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25287,7 +25287,7 @@
         <v>290</v>
       </c>
       <c r="R278" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="279" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25331,7 +25331,7 @@
         <v>2000</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="N279" s="3"/>
       <c r="O279" s="3" t="s">
@@ -25344,7 +25344,7 @@
         <v>1177</v>
       </c>
       <c r="R279" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="280" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25399,7 +25399,7 @@
         <v>508</v>
       </c>
       <c r="R280" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="281" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25454,7 +25454,7 @@
         <v>324</v>
       </c>
       <c r="R281" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="282" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25509,7 +25509,7 @@
         <v>767</v>
       </c>
       <c r="R282" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="283" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25553,7 +25553,7 @@
         <v>2060</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="N283" s="3"/>
       <c r="O283" s="3" t="s">
@@ -25566,7 +25566,7 @@
         <v>1180</v>
       </c>
       <c r="R283" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="284" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25621,7 +25621,7 @@
         <v>511</v>
       </c>
       <c r="R284" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="285" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25665,7 +25665,7 @@
         <v>2050</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="N285" s="3"/>
       <c r="O285" s="3" t="s">
@@ -25678,7 +25678,7 @@
         <v>1181</v>
       </c>
       <c r="R285" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="286" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25722,7 +25722,7 @@
         <v>680</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N286" s="3"/>
       <c r="O286" s="3" t="s">
@@ -25735,7 +25735,7 @@
         <v>1182</v>
       </c>
       <c r="R286" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="287" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25790,7 +25790,7 @@
         <v>770</v>
       </c>
       <c r="R287" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="288" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25845,7 +25845,7 @@
         <v>770</v>
       </c>
       <c r="R288" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="289" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25889,20 +25889,20 @@
         <v>3650</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="N289" s="3"/>
       <c r="O289" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P289" s="3" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="Q289" t="s">
         <v>1183</v>
       </c>
       <c r="R289" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="290" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25957,7 +25957,7 @@
         <v>773</v>
       </c>
       <c r="R290" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="291" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26012,7 +26012,7 @@
         <v>775</v>
       </c>
       <c r="R291" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="292" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26056,7 +26056,7 @@
         <v>960</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="N292" s="3"/>
       <c r="O292" s="3" t="s">
@@ -26069,7 +26069,7 @@
         <v>1185</v>
       </c>
       <c r="R292" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="293" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26113,7 +26113,7 @@
         <v>1420</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="N293" s="3"/>
       <c r="O293" s="3" t="s">
@@ -26126,7 +26126,7 @@
         <v>1186</v>
       </c>
       <c r="R293" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="294" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26170,7 +26170,7 @@
         <v>840</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N294" s="3"/>
       <c r="O294" s="3" t="s">
@@ -26183,7 +26183,7 @@
         <v>1187</v>
       </c>
       <c r="R294" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="295" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26227,7 +26227,7 @@
         <v>900</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="N295" s="3"/>
       <c r="O295" s="3" t="s">
@@ -26240,7 +26240,7 @@
         <v>1188</v>
       </c>
       <c r="R295" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="296" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26284,7 +26284,7 @@
         <v>2500</v>
       </c>
       <c r="M296" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="N296" s="3"/>
       <c r="O296" s="3" t="s">
@@ -26297,7 +26297,7 @@
         <v>1189</v>
       </c>
       <c r="R296" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="297" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26341,7 +26341,7 @@
         <v>820</v>
       </c>
       <c r="M297" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="N297" s="3"/>
       <c r="O297" s="3" t="s">
@@ -26354,7 +26354,7 @@
         <v>1190</v>
       </c>
       <c r="R297" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="298" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26409,7 +26409,7 @@
         <v>1191</v>
       </c>
       <c r="R298" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="299" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26464,7 +26464,7 @@
         <v>784</v>
       </c>
       <c r="R299" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="300" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26508,7 +26508,7 @@
         <v>1680</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="N300" s="3"/>
       <c r="O300" s="3" t="s">
@@ -26521,7 +26521,7 @@
         <v>1194</v>
       </c>
       <c r="R300" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="301" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26565,7 +26565,7 @@
         <v>6780</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="N301" s="3"/>
       <c r="O301" s="3" t="s">
@@ -26578,7 +26578,7 @@
         <v>1196</v>
       </c>
       <c r="R301" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="302" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26622,7 +26622,7 @@
         <v>2260</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="N302" s="3"/>
       <c r="O302" s="3" t="s">
@@ -26635,7 +26635,7 @@
         <v>1197</v>
       </c>
       <c r="R302" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="303" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26679,7 +26679,7 @@
         <v>2240</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="N303" s="3"/>
       <c r="O303" s="3" t="s">
@@ -26692,7 +26692,7 @@
         <v>1199</v>
       </c>
       <c r="R303" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="304" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26736,7 +26736,7 @@
         <v>2500</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="N304" s="3"/>
       <c r="O304" s="3" t="s">
@@ -26749,7 +26749,7 @@
         <v>1200</v>
       </c>
       <c r="R304" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="305" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26793,7 +26793,7 @@
         <v>5600</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="N305" s="3"/>
       <c r="O305" s="3" t="s">
@@ -26806,7 +26806,7 @@
         <v>1201</v>
       </c>
       <c r="R305" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="306" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26850,7 +26850,7 @@
         <v>2060</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N306" s="3"/>
       <c r="O306" s="3" t="s">
@@ -26863,7 +26863,7 @@
         <v>1202</v>
       </c>
       <c r="R306" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="307" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26918,7 +26918,7 @@
         <v>1203</v>
       </c>
       <c r="R307" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="308" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26962,7 +26962,7 @@
         <v>2450</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="N308" s="3"/>
       <c r="O308" s="3" t="s">
@@ -26975,7 +26975,7 @@
         <v>1204</v>
       </c>
       <c r="R308" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="309" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27019,7 +27019,7 @@
         <v>2600</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="N309" s="3"/>
       <c r="O309" s="3" t="s">
@@ -27032,7 +27032,7 @@
         <v>1205</v>
       </c>
       <c r="R309" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="310" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27076,7 +27076,7 @@
         <v>3850</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="N310" s="3"/>
       <c r="O310" s="3" t="s">
@@ -27089,7 +27089,7 @@
         <v>1207</v>
       </c>
       <c r="R310" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="311" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27133,7 +27133,7 @@
         <v>4200</v>
       </c>
       <c r="M311" s="3" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="N311" s="3"/>
       <c r="O311" s="3" t="s">
@@ -27146,7 +27146,7 @@
         <v>1205</v>
       </c>
       <c r="R311" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="312" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27190,7 +27190,7 @@
         <v>3540</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="N312" s="3"/>
       <c r="O312" s="3" t="s">
@@ -27203,7 +27203,7 @@
         <v>1208</v>
       </c>
       <c r="R312" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="313" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27258,7 +27258,7 @@
         <v>793</v>
       </c>
       <c r="R313" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="314" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27272,7 +27272,7 @@
         <v>616</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>6</v>
@@ -27311,13 +27311,13 @@
         <v>13</v>
       </c>
       <c r="P314" s="3" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="Q314" t="s">
         <v>1211</v>
       </c>
       <c r="R314" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="315" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
         <v>4200</v>
       </c>
       <c r="M316" s="3" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="N316" s="3"/>
       <c r="O316" s="3" t="s">
@@ -27431,7 +27431,7 @@
         <v>1216</v>
       </c>
       <c r="R316" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="317" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27475,7 +27475,7 @@
         <v>2200</v>
       </c>
       <c r="M317" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="N317" s="3"/>
       <c r="O317" s="3" t="s">
@@ -27488,7 +27488,7 @@
         <v>1217</v>
       </c>
       <c r="R317" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="318" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27532,20 +27532,20 @@
         <v>10000</v>
       </c>
       <c r="M318" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="N318" s="3"/>
       <c r="O318" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P318" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q318" t="s">
         <v>1218</v>
       </c>
       <c r="R318" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="319" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27589,7 +27589,7 @@
         <v>8300</v>
       </c>
       <c r="M319" s="3" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="N319" s="3"/>
       <c r="O319" s="3" t="s">
@@ -27602,7 +27602,7 @@
         <v>1220</v>
       </c>
       <c r="R319" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="320" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27646,7 +27646,7 @@
         <v>8900</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="N320" s="3"/>
       <c r="O320" s="3" t="s">
@@ -27659,7 +27659,7 @@
         <v>1222</v>
       </c>
       <c r="R320" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="321" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27703,7 +27703,7 @@
         <v>1850</v>
       </c>
       <c r="M321" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="N321" s="3"/>
       <c r="O321" s="3" t="s">
@@ -27716,7 +27716,7 @@
         <v>1223</v>
       </c>
       <c r="R321" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="322" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27771,7 +27771,7 @@
         <v>566</v>
       </c>
       <c r="R322" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
@@ -27815,10 +27815,10 @@
         <v>5600</v>
       </c>
       <c r="M323" s="3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="O323" s="3" t="s">
         <v>12</v>
@@ -27830,7 +27830,7 @@
         <v>1224</v>
       </c>
       <c r="R323" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
@@ -27874,10 +27874,10 @@
         <v>2260</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="N324" s="3" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="O324" s="3" t="s">
         <v>12</v>
@@ -27889,7 +27889,7 @@
         <v>1225</v>
       </c>
       <c r="R324" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
@@ -27933,7 +27933,7 @@
         <v>5780</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="N325" s="3"/>
       <c r="O325" s="3" t="s">
@@ -27946,7 +27946,7 @@
         <v>1227</v>
       </c>
       <c r="R325" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
@@ -27990,7 +27990,7 @@
         <v>4130</v>
       </c>
       <c r="M326" s="3" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="N326" s="3"/>
       <c r="O326" s="3" t="s">
@@ -28003,7 +28003,7 @@
         <v>1228</v>
       </c>
       <c r="R326" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -28047,7 +28047,7 @@
         <v>6720</v>
       </c>
       <c r="M327" s="3" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="N327" s="3"/>
       <c r="O327" s="3" t="s">
@@ -28060,7 +28060,7 @@
         <v>1230</v>
       </c>
       <c r="R327" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="328" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28104,7 +28104,7 @@
         <v>320</v>
       </c>
       <c r="M328" s="3" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="N328" s="3"/>
       <c r="O328" s="3" t="s">
@@ -28117,7 +28117,7 @@
         <v>1232</v>
       </c>
       <c r="R328" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="329" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28161,7 +28161,7 @@
         <v>1040</v>
       </c>
       <c r="M329" s="3" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="N329" s="3"/>
       <c r="O329" s="3" t="s">
@@ -28273,7 +28273,7 @@
         <v>3980</v>
       </c>
       <c r="M331" s="3" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="N331" s="3" t="s">
         <v>1235</v>
@@ -28343,7 +28343,7 @@
         <v>443</v>
       </c>
       <c r="R332" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="333" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28396,7 +28396,7 @@
         <v>13</v>
       </c>
       <c r="P333" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q333" t="s">
         <v>1239</v>
@@ -28505,20 +28505,20 @@
         <v>5650</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="N335" s="3"/>
       <c r="O335" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P335" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q335" t="s">
         <v>1242</v>
       </c>
       <c r="R335" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="336" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28573,7 +28573,7 @@
         <v>569</v>
       </c>
       <c r="R336" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="337" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28628,7 +28628,7 @@
         <v>572</v>
       </c>
       <c r="R337" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="338" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28672,7 +28672,7 @@
         <v>2900</v>
       </c>
       <c r="M338" s="3" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="N338" s="3"/>
       <c r="O338" s="3" t="s">
@@ -28685,7 +28685,7 @@
         <v>1243</v>
       </c>
       <c r="R338" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="339" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28740,7 +28740,7 @@
         <v>577</v>
       </c>
       <c r="R339" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="340" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28784,7 +28784,7 @@
         <v>1680</v>
       </c>
       <c r="M340" s="3" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="N340" s="3"/>
       <c r="O340" s="3" t="s">
@@ -28797,7 +28797,7 @@
         <v>1244</v>
       </c>
       <c r="R340" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="341" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28841,7 +28841,7 @@
         <v>2180</v>
       </c>
       <c r="M341" s="3" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="N341" s="3"/>
       <c r="O341" s="3" t="s">
@@ -28854,7 +28854,7 @@
         <v>1246</v>
       </c>
       <c r="R341" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="342" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28909,7 +28909,7 @@
         <v>806</v>
       </c>
       <c r="R342" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="343" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28953,7 +28953,7 @@
         <v>2850</v>
       </c>
       <c r="M343" s="3" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="N343" s="3"/>
       <c r="O343" s="3" t="s">
@@ -28966,7 +28966,7 @@
         <v>1247</v>
       </c>
       <c r="R343" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="344" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29010,7 +29010,7 @@
         <v>3000</v>
       </c>
       <c r="M344" s="3" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N344" s="3"/>
       <c r="O344" s="3" t="s">
@@ -29023,7 +29023,7 @@
         <v>1248</v>
       </c>
       <c r="R344" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="345" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29067,7 +29067,7 @@
         <v>1200</v>
       </c>
       <c r="M345" s="3" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N345" s="3"/>
       <c r="O345" s="3" t="s">
@@ -29080,7 +29080,7 @@
         <v>1249</v>
       </c>
       <c r="R345" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="346" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29135,7 +29135,7 @@
         <v>1250</v>
       </c>
       <c r="R346" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="347" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29179,7 +29179,7 @@
         <v>2050</v>
       </c>
       <c r="M347" s="3" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="N347" s="3"/>
       <c r="O347" s="3" t="s">
@@ -29192,7 +29192,7 @@
         <v>1251</v>
       </c>
       <c r="R347" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="348" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29236,7 +29236,7 @@
         <v>2350</v>
       </c>
       <c r="M348" s="3" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="N348" s="3"/>
       <c r="O348" s="3" t="s">
@@ -29249,7 +29249,7 @@
         <v>1252</v>
       </c>
       <c r="R348" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="349" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29293,7 +29293,7 @@
         <v>1600</v>
       </c>
       <c r="M349" s="3" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="N349" s="3"/>
       <c r="O349" s="3" t="s">
@@ -29306,7 +29306,7 @@
         <v>1253</v>
       </c>
       <c r="R349" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="350" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29418,7 +29418,7 @@
         <v>13</v>
       </c>
       <c r="P351" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q351" t="s">
         <v>1256</v>
@@ -29479,7 +29479,7 @@
         <v>469</v>
       </c>
       <c r="R352" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="353" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29523,20 +29523,20 @@
         <v>9050</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="N353" s="3"/>
       <c r="O353" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P353" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q353" t="s">
         <v>1257</v>
       </c>
       <c r="R353" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="354" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29580,20 +29580,20 @@
         <v>14200</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="N354" s="3"/>
       <c r="O354" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P354" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q354" t="s">
         <v>1259</v>
       </c>
       <c r="R354" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="355" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29642,13 +29642,13 @@
         <v>13</v>
       </c>
       <c r="P355" s="3" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q355" t="s">
         <v>300</v>
       </c>
       <c r="R355" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="356" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29701,7 +29701,7 @@
         <v>302</v>
       </c>
       <c r="R356" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="357" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29745,7 +29745,7 @@
         <v>5000</v>
       </c>
       <c r="M357" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="O357" s="3" t="s">
         <v>12</v>
@@ -29757,7 +29757,7 @@
         <v>1261</v>
       </c>
       <c r="R357" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="358" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29801,7 +29801,7 @@
         <v>2790</v>
       </c>
       <c r="M358" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="O358" s="3" t="s">
         <v>12</v>
@@ -29857,7 +29857,7 @@
         <v>5600</v>
       </c>
       <c r="M359" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>12</v>
@@ -29869,7 +29869,7 @@
         <v>1264</v>
       </c>
       <c r="R359" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="360" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29913,7 +29913,7 @@
         <v>3500</v>
       </c>
       <c r="M360" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="O360" s="3" t="s">
         <v>12</v>
@@ -29925,7 +29925,7 @@
         <v>1265</v>
       </c>
       <c r="R360" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="361" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29969,7 +29969,7 @@
         <v>2700</v>
       </c>
       <c r="M361" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="O361" s="3" t="s">
         <v>12</v>
@@ -29981,7 +29981,7 @@
         <v>1266</v>
       </c>
       <c r="R361" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="362" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30131,7 +30131,7 @@
         <v>7490</v>
       </c>
       <c r="M364" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="O364" s="3" t="s">
         <v>12</v>
@@ -30143,7 +30143,7 @@
         <v>1268</v>
       </c>
       <c r="R364" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="365" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30196,7 +30196,7 @@
         <v>816</v>
       </c>
       <c r="R365" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="366" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30240,7 +30240,7 @@
         <v>3300</v>
       </c>
       <c r="M366" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="O366" t="s">
         <v>31</v>
@@ -30252,7 +30252,7 @@
         <v>1458</v>
       </c>
       <c r="R366" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="367" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30301,7 +30301,7 @@
         <v>13</v>
       </c>
       <c r="P367" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="R367" t="s">
         <v>1836</v>
@@ -30348,7 +30348,7 @@
         <v>3300</v>
       </c>
       <c r="M368" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="O368" t="s">
         <v>31</v>
@@ -30360,7 +30360,7 @@
         <v>1459</v>
       </c>
       <c r="R368" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="369" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30404,7 +30404,7 @@
         <v>4860</v>
       </c>
       <c r="M369" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="O369" s="3" t="s">
         <v>12</v>
@@ -30416,7 +30416,7 @@
         <v>1274</v>
       </c>
       <c r="R369" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="370" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30460,10 +30460,10 @@
         <v>7692</v>
       </c>
       <c r="M370" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="N370" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="O370" s="3" t="s">
         <v>12</v>
@@ -30571,7 +30571,7 @@
         <v>2500</v>
       </c>
       <c r="M372" s="3" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="N372" s="3" t="s">
         <v>999</v>
@@ -30683,7 +30683,7 @@
         <v>2560</v>
       </c>
       <c r="M374" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="O374" s="3" t="s">
         <v>12</v>
@@ -30739,7 +30739,7 @@
         <v>2200</v>
       </c>
       <c r="M375" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="O375" s="3" t="s">
         <v>12</v>
@@ -30795,7 +30795,7 @@
         <v>3180</v>
       </c>
       <c r="M376" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="O376" s="3" t="s">
         <v>12</v>
@@ -30904,7 +30904,7 @@
         <v>3600</v>
       </c>
       <c r="M378" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="O378" s="3" t="s">
         <v>12</v>
@@ -30960,10 +30960,10 @@
         <v>5500</v>
       </c>
       <c r="M379" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="N379" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="O379" s="3" t="s">
         <v>12</v>
@@ -31019,7 +31019,7 @@
         <v>3000</v>
       </c>
       <c r="M380" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="O380" s="3" t="s">
         <v>12</v>
@@ -31031,7 +31031,7 @@
         <v>1287</v>
       </c>
       <c r="R380" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="381" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31075,7 +31075,7 @@
         <v>4600</v>
       </c>
       <c r="M381" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="O381" s="3" t="s">
         <v>12</v>
@@ -31131,10 +31131,10 @@
         <v>3920</v>
       </c>
       <c r="M382" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="N382" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="O382" s="3" t="s">
         <v>12</v>
@@ -31190,7 +31190,7 @@
         <v>3300</v>
       </c>
       <c r="M383" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="O383" s="3" t="s">
         <v>12</v>
@@ -31202,7 +31202,7 @@
         <v>1292</v>
       </c>
       <c r="R383" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="384" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31255,7 +31255,7 @@
         <v>1294</v>
       </c>
       <c r="R384" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="385" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31299,10 +31299,10 @@
         <v>4120</v>
       </c>
       <c r="M385" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="N385" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="O385" s="3" t="s">
         <v>12</v>
@@ -31358,7 +31358,7 @@
         <v>11100</v>
       </c>
       <c r="M386" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="O386" s="3" t="s">
         <v>12</v>
@@ -31370,7 +31370,7 @@
         <v>1298</v>
       </c>
       <c r="R386" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="387" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31414,7 +31414,7 @@
         <v>9100</v>
       </c>
       <c r="M387" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="O387" s="3" t="s">
         <v>12</v>
@@ -31426,7 +31426,7 @@
         <v>1300</v>
       </c>
       <c r="R387" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="388" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31470,7 +31470,7 @@
         <v>8250</v>
       </c>
       <c r="M388" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="O388" s="3" t="s">
         <v>12</v>
@@ -31482,7 +31482,7 @@
         <v>1301</v>
       </c>
       <c r="R388" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="389" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31526,7 +31526,7 @@
         <v>8400</v>
       </c>
       <c r="M389" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>12</v>
@@ -31538,7 +31538,7 @@
         <v>1302</v>
       </c>
       <c r="R389" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="390" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31582,10 +31582,10 @@
         <v>11300</v>
       </c>
       <c r="M390" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="N390" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>12</v>
@@ -31597,7 +31597,7 @@
         <v>1304</v>
       </c>
       <c r="R390" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="391" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31650,7 +31650,7 @@
         <v>1305</v>
       </c>
       <c r="R391" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="392" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31694,10 +31694,10 @@
         <v>6080</v>
       </c>
       <c r="M392" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="N392" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="O392" s="3" t="s">
         <v>12</v>
@@ -31709,7 +31709,7 @@
         <v>1306</v>
       </c>
       <c r="R392" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="393" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31753,7 +31753,7 @@
         <v>1580</v>
       </c>
       <c r="M393" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="O393" s="3" t="s">
         <v>12</v>
@@ -31862,7 +31862,7 @@
         <v>4600</v>
       </c>
       <c r="M395" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="O395" s="3" t="s">
         <v>12</v>
@@ -31874,7 +31874,7 @@
         <v>1309</v>
       </c>
       <c r="R395" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="396" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31971,7 +31971,7 @@
         <v>1500</v>
       </c>
       <c r="M397" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="O397" s="3" t="s">
         <v>12</v>
@@ -31983,7 +31983,7 @@
         <v>1310</v>
       </c>
       <c r="R397" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="398" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32027,7 +32027,7 @@
         <v>1600</v>
       </c>
       <c r="M398" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="O398" s="3" t="s">
         <v>12</v>
@@ -32039,7 +32039,7 @@
         <v>1312</v>
       </c>
       <c r="R398" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="399" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32083,7 +32083,7 @@
         <v>1750</v>
       </c>
       <c r="M399" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="O399" s="3" t="s">
         <v>12</v>
@@ -32095,7 +32095,7 @@
         <v>1313</v>
       </c>
       <c r="R399" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="400" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32139,7 +32139,7 @@
         <v>2700</v>
       </c>
       <c r="M400" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O400" s="3" t="s">
         <v>12</v>
@@ -32151,7 +32151,7 @@
         <v>1310</v>
       </c>
       <c r="R400" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="401" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32195,7 +32195,7 @@
         <v>3050</v>
       </c>
       <c r="M401" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="O401" s="3" t="s">
         <v>12</v>
@@ -32207,7 +32207,7 @@
         <v>1314</v>
       </c>
       <c r="R401" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="402" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32251,7 +32251,7 @@
         <v>3600</v>
       </c>
       <c r="M402" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="O402" s="3" t="s">
         <v>12</v>
@@ -32263,7 +32263,7 @@
         <v>1315</v>
       </c>
       <c r="R402" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="403" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32307,10 +32307,10 @@
         <v>2990</v>
       </c>
       <c r="M403" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O403" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="P403" t="s">
         <v>901</v>
@@ -32319,7 +32319,7 @@
         <v>1310</v>
       </c>
       <c r="R403" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="404" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32363,7 +32363,7 @@
         <v>3500</v>
       </c>
       <c r="M404" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="O404" s="3" t="s">
         <v>12</v>
@@ -32375,7 +32375,7 @@
         <v>1316</v>
       </c>
       <c r="R404" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="405" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32419,7 +32419,7 @@
         <v>5580</v>
       </c>
       <c r="M405" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="O405" s="3" t="s">
         <v>12</v>
@@ -32431,7 +32431,7 @@
         <v>1318</v>
       </c>
       <c r="R405" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="406" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32475,7 +32475,7 @@
         <v>1500</v>
       </c>
       <c r="M406" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="O406" s="3" t="s">
         <v>12</v>
@@ -32487,7 +32487,7 @@
         <v>1319</v>
       </c>
       <c r="R406" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="407" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32531,7 +32531,7 @@
         <v>2000</v>
       </c>
       <c r="M407" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="O407" s="3" t="s">
         <v>12</v>
@@ -32587,7 +32587,7 @@
         <v>7850</v>
       </c>
       <c r="M408" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="O408" s="3" t="s">
         <v>12</v>
@@ -32599,7 +32599,7 @@
         <v>1322</v>
       </c>
       <c r="R408" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="409" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32643,7 +32643,7 @@
         <v>1500</v>
       </c>
       <c r="M409" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="O409" s="3" t="s">
         <v>12</v>
@@ -32655,7 +32655,7 @@
         <v>1323</v>
       </c>
       <c r="R409" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="410" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32699,7 +32699,7 @@
         <v>2040</v>
       </c>
       <c r="M410" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="O410" s="3" t="s">
         <v>12</v>
@@ -32711,7 +32711,7 @@
         <v>1324</v>
       </c>
       <c r="R410" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="411" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32755,7 +32755,7 @@
         <v>1900</v>
       </c>
       <c r="M411" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="O411" s="3" t="s">
         <v>12</v>
@@ -32767,7 +32767,7 @@
         <v>1325</v>
       </c>
       <c r="R411" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="412" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32811,7 +32811,7 @@
         <v>8250</v>
       </c>
       <c r="M412" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="O412" s="3" t="s">
         <v>12</v>
@@ -32823,7 +32823,7 @@
         <v>1326</v>
       </c>
       <c r="R412" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="413" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32867,7 +32867,7 @@
         <v>5550</v>
       </c>
       <c r="M413" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="O413" s="3" t="s">
         <v>12</v>
@@ -32879,7 +32879,7 @@
         <v>1327</v>
       </c>
       <c r="R413" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="414" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32923,7 +32923,7 @@
         <v>6650</v>
       </c>
       <c r="M414" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="O414" s="3" t="s">
         <v>12</v>
@@ -32935,7 +32935,7 @@
         <v>1329</v>
       </c>
       <c r="R414" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="415" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32979,7 +32979,7 @@
         <v>4800</v>
       </c>
       <c r="M415" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="O415" s="3" t="s">
         <v>12</v>
@@ -32991,7 +32991,7 @@
         <v>1330</v>
       </c>
       <c r="R415" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="416" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33035,7 +33035,7 @@
         <v>4060</v>
       </c>
       <c r="M416" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="O416" s="3" t="s">
         <v>12</v>
@@ -33047,7 +33047,7 @@
         <v>1331</v>
       </c>
       <c r="R416" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="417" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33091,7 +33091,7 @@
         <v>1450</v>
       </c>
       <c r="M417" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="O417" s="3" t="s">
         <v>12</v>
@@ -33103,7 +33103,7 @@
         <v>1332</v>
       </c>
       <c r="R417" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="418" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33147,7 +33147,7 @@
         <v>3650</v>
       </c>
       <c r="M418" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="O418" s="3" t="s">
         <v>12</v>
@@ -33159,7 +33159,7 @@
         <v>1333</v>
       </c>
       <c r="R418" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="419" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33212,7 +33212,7 @@
         <v>816</v>
       </c>
       <c r="R419" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="420" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33256,7 +33256,7 @@
         <v>3250</v>
       </c>
       <c r="M420" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>12</v>
@@ -33268,7 +33268,7 @@
         <v>1334</v>
       </c>
       <c r="R420" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="421" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33312,7 +33312,7 @@
         <v>7400</v>
       </c>
       <c r="M421" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="O421" s="3" t="s">
         <v>12</v>
@@ -33324,7 +33324,7 @@
         <v>1336</v>
       </c>
       <c r="R421" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="422" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33368,7 +33368,7 @@
         <v>2350</v>
       </c>
       <c r="M422" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="O422" s="3" t="s">
         <v>12</v>
@@ -33380,7 +33380,7 @@
         <v>1337</v>
       </c>
       <c r="R422" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="423" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33424,7 +33424,7 @@
         <v>17880</v>
       </c>
       <c r="M423" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="O423" s="3" t="s">
         <v>12</v>
@@ -33436,7 +33436,7 @@
         <v>1339</v>
       </c>
       <c r="R423" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="424" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33489,7 +33489,7 @@
         <v>377</v>
       </c>
       <c r="R424" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="425" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33533,7 +33533,7 @@
         <v>1700</v>
       </c>
       <c r="M425" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="O425" s="3" t="s">
         <v>12</v>
@@ -33545,7 +33545,7 @@
         <v>1340</v>
       </c>
       <c r="R425" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="426" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33589,7 +33589,7 @@
         <v>1750</v>
       </c>
       <c r="M426" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>12</v>
@@ -33601,7 +33601,7 @@
         <v>1340</v>
       </c>
       <c r="R426" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="427" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33645,7 +33645,7 @@
         <v>3150</v>
       </c>
       <c r="M427" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="O427" s="3" t="s">
         <v>12</v>
@@ -33657,7 +33657,7 @@
         <v>1341</v>
       </c>
       <c r="R427" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="428" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33706,7 +33706,7 @@
         <v>13</v>
       </c>
       <c r="P428" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q428" t="s">
         <v>28</v>
@@ -33756,7 +33756,7 @@
         <v>5150</v>
       </c>
       <c r="M429" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="O429" s="3" t="s">
         <v>12</v>
@@ -33768,7 +33768,7 @@
         <v>1342</v>
       </c>
       <c r="R429" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="430" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33821,7 +33821,7 @@
         <v>381</v>
       </c>
       <c r="R430" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="431" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33865,7 +33865,7 @@
         <v>7040</v>
       </c>
       <c r="M431" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="O431" s="3" t="s">
         <v>12</v>
@@ -33877,7 +33877,7 @@
         <v>1343</v>
       </c>
       <c r="R431" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="432" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33921,7 +33921,7 @@
         <v>7400</v>
       </c>
       <c r="M432" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>12</v>
@@ -33933,7 +33933,7 @@
         <v>1345</v>
       </c>
       <c r="R432" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="433" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33977,7 +33977,7 @@
         <v>1700</v>
       </c>
       <c r="M433" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="O433" s="3" t="s">
         <v>12</v>
@@ -33989,7 +33989,7 @@
         <v>1346</v>
       </c>
       <c r="R433" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="434" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34033,7 +34033,7 @@
         <v>1650</v>
       </c>
       <c r="M434" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="O434" s="3" t="s">
         <v>12</v>
@@ -34045,7 +34045,7 @@
         <v>1347</v>
       </c>
       <c r="R434" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="435" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34089,7 +34089,7 @@
         <v>1750</v>
       </c>
       <c r="M435" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="O435" s="3" t="s">
         <v>12</v>
@@ -34101,7 +34101,7 @@
         <v>1348</v>
       </c>
       <c r="R435" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="436" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34145,7 +34145,7 @@
         <v>2000</v>
       </c>
       <c r="M436" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="O436" s="3" t="s">
         <v>12</v>
@@ -34157,7 +34157,7 @@
         <v>1347</v>
       </c>
       <c r="R436" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="437" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34201,7 +34201,7 @@
         <v>2200</v>
       </c>
       <c r="M437" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="O437" s="3" t="s">
         <v>12</v>
@@ -34213,7 +34213,7 @@
         <v>1349</v>
       </c>
       <c r="R437" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="438" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34257,7 +34257,7 @@
         <v>2250</v>
       </c>
       <c r="M438" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="O438" s="3" t="s">
         <v>12</v>
@@ -34269,7 +34269,7 @@
         <v>1350</v>
       </c>
       <c r="R438" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="439" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34313,7 +34313,7 @@
         <v>3750</v>
       </c>
       <c r="M439" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="O439" s="3" t="s">
         <v>12</v>
@@ -34325,7 +34325,7 @@
         <v>1351</v>
       </c>
       <c r="R439" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="440" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34369,7 +34369,7 @@
         <v>8250</v>
       </c>
       <c r="M440" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="O440" s="3" t="s">
         <v>12</v>
@@ -34381,7 +34381,7 @@
         <v>1352</v>
       </c>
       <c r="R440" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="441" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34425,7 +34425,7 @@
         <v>11300</v>
       </c>
       <c r="M441" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="O441" s="3" t="s">
         <v>12</v>
@@ -34437,7 +34437,7 @@
         <v>1354</v>
       </c>
       <c r="R441" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="442" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34481,7 +34481,7 @@
         <v>1000</v>
       </c>
       <c r="M442" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="O442" s="3" t="s">
         <v>12</v>
@@ -34493,7 +34493,7 @@
         <v>1355</v>
       </c>
       <c r="R442" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="443" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34537,7 +34537,7 @@
         <v>1250</v>
       </c>
       <c r="M443" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="O443" s="3" t="s">
         <v>12</v>
@@ -34549,7 +34549,7 @@
         <v>1310</v>
       </c>
       <c r="R443" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="444" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34593,7 +34593,7 @@
         <v>950</v>
       </c>
       <c r="M444" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="O444" s="3" t="s">
         <v>12</v>
@@ -34605,7 +34605,7 @@
         <v>1310</v>
       </c>
       <c r="R444" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="445" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34649,7 +34649,7 @@
         <v>1800</v>
       </c>
       <c r="M445" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="O445" s="3" t="s">
         <v>12</v>
@@ -34661,7 +34661,7 @@
         <v>1357</v>
       </c>
       <c r="R445" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="446" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34705,7 +34705,7 @@
         <v>2850</v>
       </c>
       <c r="M446" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="O446" s="3" t="s">
         <v>12</v>
@@ -34717,7 +34717,7 @@
         <v>1358</v>
       </c>
       <c r="R446" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="447" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34761,7 +34761,7 @@
         <v>3000</v>
       </c>
       <c r="M447" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="O447" s="3" t="s">
         <v>12</v>
@@ -34773,7 +34773,7 @@
         <v>1359</v>
       </c>
       <c r="R447" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="448" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34817,7 +34817,7 @@
         <v>3300</v>
       </c>
       <c r="M448" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="O448" s="3" t="s">
         <v>12</v>
@@ -34829,7 +34829,7 @@
         <v>1360</v>
       </c>
       <c r="R448" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="449" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34873,7 +34873,7 @@
         <v>4100</v>
       </c>
       <c r="M449" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="O449" s="3" t="s">
         <v>12</v>
@@ -34885,7 +34885,7 @@
         <v>1362</v>
       </c>
       <c r="R449" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="450" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34938,7 +34938,7 @@
         <v>855</v>
       </c>
       <c r="R450" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="451" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34982,7 +34982,7 @@
         <v>8450</v>
       </c>
       <c r="M451" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="O451" s="3" t="s">
         <v>12</v>
@@ -34994,7 +34994,7 @@
         <v>1363</v>
       </c>
       <c r="R451" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="452" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35038,7 +35038,7 @@
         <v>1700</v>
       </c>
       <c r="M452" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="O452" s="3" t="s">
         <v>12</v>
@@ -35050,7 +35050,7 @@
         <v>1364</v>
       </c>
       <c r="R452" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="453" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35103,7 +35103,7 @@
         <v>398</v>
       </c>
       <c r="R453" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="454" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35147,7 +35147,7 @@
         <v>3500</v>
       </c>
       <c r="M454" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="O454" s="3" t="s">
         <v>12</v>
@@ -35159,7 +35159,7 @@
         <v>1365</v>
       </c>
       <c r="R454" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="455" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35203,7 +35203,7 @@
         <v>1900</v>
       </c>
       <c r="M455" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="O455" s="3" t="s">
         <v>12</v>
@@ -35215,7 +35215,7 @@
         <v>1366</v>
       </c>
       <c r="R455" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="456" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35259,7 +35259,7 @@
         <v>6850</v>
       </c>
       <c r="M456" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="O456" s="3" t="s">
         <v>12</v>
@@ -35271,7 +35271,7 @@
         <v>1368</v>
       </c>
       <c r="R456" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="457" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35315,7 +35315,7 @@
         <v>6850</v>
       </c>
       <c r="M457" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="O457" s="3" t="s">
         <v>12</v>
@@ -35327,7 +35327,7 @@
         <v>1369</v>
       </c>
       <c r="R457" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="458" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35371,7 +35371,7 @@
         <v>3200</v>
       </c>
       <c r="M458" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="O458" s="3" t="s">
         <v>12</v>
@@ -35383,7 +35383,7 @@
         <v>1370</v>
       </c>
       <c r="R458" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="459" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35436,7 +35436,7 @@
         <v>448</v>
       </c>
       <c r="R459" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="460" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35480,19 +35480,19 @@
         <v>4500</v>
       </c>
       <c r="M460" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="O460" t="s">
         <v>13</v>
       </c>
       <c r="P460" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q460" t="s">
         <v>1372</v>
       </c>
       <c r="R460" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="461" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35536,19 +35536,19 @@
         <v>14200</v>
       </c>
       <c r="M461" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="O461" t="s">
         <v>13</v>
       </c>
       <c r="P461" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q461" t="s">
         <v>1374</v>
       </c>
       <c r="R461" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="462" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35592,19 +35592,19 @@
         <v>9050</v>
       </c>
       <c r="M462" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="O462" t="s">
         <v>13</v>
       </c>
       <c r="P462" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q462" t="s">
         <v>1376</v>
       </c>
       <c r="R462" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="463" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35648,19 +35648,19 @@
         <v>3500</v>
       </c>
       <c r="M463" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="O463" t="s">
         <v>13</v>
       </c>
       <c r="P463" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q463" t="s">
         <v>1377</v>
       </c>
       <c r="R463" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="464" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35704,19 +35704,19 @@
         <v>4700</v>
       </c>
       <c r="M464" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="O464" t="s">
         <v>13</v>
       </c>
       <c r="P464" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q464" t="s">
         <v>1378</v>
       </c>
       <c r="R464" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="465" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35760,19 +35760,19 @@
         <v>2450</v>
       </c>
       <c r="M465" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="O465" t="s">
         <v>13</v>
       </c>
       <c r="P465" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q465" t="s">
         <v>1380</v>
       </c>
       <c r="R465" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="466" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35816,19 +35816,19 @@
         <v>3350</v>
       </c>
       <c r="M466" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="O466" t="s">
         <v>13</v>
       </c>
       <c r="P466" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q466" t="s">
         <v>1381</v>
       </c>
       <c r="R466" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="467" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35881,7 +35881,7 @@
         <v>13</v>
       </c>
       <c r="P467" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q467" t="s">
         <v>1383</v>
@@ -35990,19 +35990,19 @@
         <v>8100</v>
       </c>
       <c r="M469" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="O469" t="s">
         <v>13</v>
       </c>
       <c r="P469" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q469" t="s">
         <v>1385</v>
       </c>
       <c r="R469" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="470" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36046,7 +36046,7 @@
         <v>2000</v>
       </c>
       <c r="M470" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="O470" s="3" t="s">
         <v>12</v>
@@ -36058,7 +36058,7 @@
         <v>1386</v>
       </c>
       <c r="R470" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="471" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36102,19 +36102,19 @@
         <v>3300</v>
       </c>
       <c r="M471" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="O471" t="s">
         <v>13</v>
       </c>
       <c r="P471" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q471" t="s">
         <v>1387</v>
       </c>
       <c r="R471" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="472" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36167,7 +36167,7 @@
         <v>585</v>
       </c>
       <c r="R472" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="473" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36220,7 +36220,7 @@
         <v>587</v>
       </c>
       <c r="R473" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="474" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36264,19 +36264,19 @@
         <v>2200</v>
       </c>
       <c r="M474" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O474" t="s">
         <v>13</v>
       </c>
       <c r="P474" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q474" t="s">
         <v>1388</v>
       </c>
       <c r="R474" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="475" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36320,19 +36320,19 @@
         <v>2200</v>
       </c>
       <c r="M475" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O475" t="s">
         <v>13</v>
       </c>
       <c r="P475" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q475" t="s">
         <v>1389</v>
       </c>
       <c r="R475" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="476" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36376,19 +36376,19 @@
         <v>2200</v>
       </c>
       <c r="M476" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O476" t="s">
         <v>13</v>
       </c>
       <c r="P476" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q476" t="s">
         <v>1390</v>
       </c>
       <c r="R476" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="477" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36432,19 +36432,19 @@
         <v>2200</v>
       </c>
       <c r="M477" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O477" t="s">
         <v>13</v>
       </c>
       <c r="P477" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q477" t="s">
         <v>1391</v>
       </c>
       <c r="R477" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="478" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36488,19 +36488,19 @@
         <v>2200</v>
       </c>
       <c r="M478" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O478" t="s">
         <v>13</v>
       </c>
       <c r="P478" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q478" t="s">
         <v>1392</v>
       </c>
       <c r="R478" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="479" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36544,19 +36544,19 @@
         <v>2200</v>
       </c>
       <c r="M479" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O479" t="s">
         <v>13</v>
       </c>
       <c r="P479" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q479" t="s">
         <v>601</v>
       </c>
       <c r="R479" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="480" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36609,7 +36609,7 @@
         <v>601</v>
       </c>
       <c r="R480" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="481" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36653,7 +36653,7 @@
         <v>7550</v>
       </c>
       <c r="M481" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="O481" s="3" t="s">
         <v>12</v>
@@ -36665,7 +36665,7 @@
         <v>1393</v>
       </c>
       <c r="R481" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="482" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36709,7 +36709,7 @@
         <v>2540</v>
       </c>
       <c r="M482" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="O482" t="s">
         <v>12</v>
@@ -36721,7 +36721,7 @@
         <v>1395</v>
       </c>
       <c r="R482" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="483" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36765,7 +36765,7 @@
         <v>4550</v>
       </c>
       <c r="M483" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="O483" s="3" t="s">
         <v>12</v>
@@ -36777,7 +36777,7 @@
         <v>1396</v>
       </c>
       <c r="R483" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="484" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36821,7 +36821,7 @@
         <v>1820</v>
       </c>
       <c r="M484" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="O484" t="s">
         <v>12</v>
@@ -36833,7 +36833,7 @@
         <v>1397</v>
       </c>
       <c r="R484" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="485" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36886,7 +36886,7 @@
         <v>866</v>
       </c>
       <c r="R485" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="486" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36930,7 +36930,7 @@
         <v>6350</v>
       </c>
       <c r="M486" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="O486" s="3" t="s">
         <v>12</v>
@@ -36942,7 +36942,7 @@
         <v>1398</v>
       </c>
       <c r="R486" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="487" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36986,7 +36986,7 @@
         <v>2700</v>
       </c>
       <c r="M487" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="O487" s="3" t="s">
         <v>12</v>
@@ -36998,7 +36998,7 @@
         <v>1399</v>
       </c>
       <c r="R487" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="488" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37051,7 +37051,7 @@
         <v>472</v>
       </c>
       <c r="R488" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="489" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37104,7 +37104,7 @@
         <v>475</v>
       </c>
       <c r="R489" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="490" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37148,7 +37148,7 @@
         <v>5450</v>
       </c>
       <c r="M490" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="O490" s="3" t="s">
         <v>12</v>
@@ -37160,7 +37160,7 @@
         <v>1401</v>
       </c>
       <c r="R490" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="491" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37204,7 +37204,7 @@
         <v>1500</v>
       </c>
       <c r="M491" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="O491" t="s">
         <v>12</v>
@@ -37216,7 +37216,7 @@
         <v>1402</v>
       </c>
       <c r="R491" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="492" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37260,7 +37260,7 @@
         <v>500</v>
       </c>
       <c r="M492" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="O492" t="s">
         <v>12</v>
@@ -37272,7 +37272,7 @@
         <v>1403</v>
       </c>
       <c r="R492" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="493" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37316,7 +37316,7 @@
         <v>4620</v>
       </c>
       <c r="M493" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="O493" s="3" t="s">
         <v>12</v>
@@ -37328,7 +37328,7 @@
         <v>1404</v>
       </c>
       <c r="R493" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="494" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37372,7 +37372,7 @@
         <v>1635</v>
       </c>
       <c r="M494" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="O494" t="s">
         <v>12</v>
@@ -37384,7 +37384,7 @@
         <v>1405</v>
       </c>
       <c r="R494" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="495" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37428,7 +37428,7 @@
         <v>2550</v>
       </c>
       <c r="M495" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="O495" s="3" t="s">
         <v>12</v>
@@ -37440,7 +37440,7 @@
         <v>1406</v>
       </c>
       <c r="R495" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="496" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37484,7 +37484,7 @@
         <v>2950</v>
       </c>
       <c r="M496" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="O496" s="3" t="s">
         <v>12</v>
@@ -37496,7 +37496,7 @@
         <v>1407</v>
       </c>
       <c r="R496" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="497" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37540,7 +37540,7 @@
         <v>1700</v>
       </c>
       <c r="M497" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>12</v>
@@ -37552,7 +37552,7 @@
         <v>1408</v>
       </c>
       <c r="R497" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="498" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37596,7 +37596,7 @@
         <v>6000</v>
       </c>
       <c r="M498" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>12</v>
@@ -37608,7 +37608,7 @@
         <v>1409</v>
       </c>
       <c r="R498" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="499" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37652,7 +37652,7 @@
         <v>2100</v>
       </c>
       <c r="M499" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="O499" s="3" t="s">
         <v>12</v>
@@ -37664,7 +37664,7 @@
         <v>1410</v>
       </c>
       <c r="R499" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="500" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37713,13 +37713,13 @@
         <v>13</v>
       </c>
       <c r="P500" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q500" t="s">
         <v>129</v>
       </c>
       <c r="R500" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="501" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37763,7 +37763,7 @@
         <v>840</v>
       </c>
       <c r="M501" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="O501" t="s">
         <v>12</v>
@@ -37775,7 +37775,7 @@
         <v>1411</v>
       </c>
       <c r="R501" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="502" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37819,7 +37819,7 @@
         <v>1700</v>
       </c>
       <c r="M502" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="O502" s="3" t="s">
         <v>12</v>
@@ -37831,7 +37831,7 @@
         <v>1412</v>
       </c>
       <c r="R502" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="503" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37875,7 +37875,7 @@
         <v>2100</v>
       </c>
       <c r="M503" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>12</v>
@@ -37887,7 +37887,7 @@
         <v>1413</v>
       </c>
       <c r="R503" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="504" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37931,7 +37931,7 @@
         <v>780</v>
       </c>
       <c r="M504" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="O504" t="s">
         <v>12</v>
@@ -37943,7 +37943,7 @@
         <v>1414</v>
       </c>
       <c r="R504" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="505" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37987,7 +37987,7 @@
         <v>1140</v>
       </c>
       <c r="M505" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="O505" s="3" t="s">
         <v>12</v>
@@ -37999,7 +37999,7 @@
         <v>1415</v>
       </c>
       <c r="R505" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="506" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38052,7 +38052,7 @@
         <v>877</v>
       </c>
       <c r="R506" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="507" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38096,7 +38096,7 @@
         <v>1950</v>
       </c>
       <c r="M507" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="O507" s="3" t="s">
         <v>12</v>
@@ -38108,7 +38108,7 @@
         <v>1416</v>
       </c>
       <c r="R507" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="508" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38152,7 +38152,7 @@
         <v>2750</v>
       </c>
       <c r="M508" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="O508" s="3" t="s">
         <v>12</v>
@@ -38164,7 +38164,7 @@
         <v>1417</v>
       </c>
       <c r="R508" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="509" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38213,7 +38213,7 @@
         <v>13</v>
       </c>
       <c r="P509" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q509" t="s">
         <v>135</v>
@@ -38268,7 +38268,7 @@
         <v>13</v>
       </c>
       <c r="P510" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q510" t="s">
         <v>142</v>
@@ -38318,7 +38318,7 @@
         <v>3300</v>
       </c>
       <c r="M511" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="O511" t="s">
         <v>31</v>
@@ -38330,7 +38330,7 @@
         <v>1460</v>
       </c>
       <c r="R511" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="512" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38374,7 +38374,7 @@
         <v>3300</v>
       </c>
       <c r="M512" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="O512" t="s">
         <v>31</v>
@@ -38386,7 +38386,7 @@
         <v>1461</v>
       </c>
       <c r="R512" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="513" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38430,7 +38430,7 @@
         <v>2750</v>
       </c>
       <c r="M513" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="O513" s="3" t="s">
         <v>12</v>
@@ -38442,7 +38442,7 @@
         <v>1421</v>
       </c>
       <c r="R513" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="514" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38486,7 +38486,7 @@
         <v>2900</v>
       </c>
       <c r="M514" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="O514" s="3" t="s">
         <v>12</v>
@@ -38498,7 +38498,7 @@
         <v>1422</v>
       </c>
       <c r="R514" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="515" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38557,7 +38557,7 @@
         <v>1427</v>
       </c>
       <c r="R515" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="516" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38657,7 +38657,7 @@
         <v>2200</v>
       </c>
       <c r="M517" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="O517" s="3" t="s">
         <v>12</v>
@@ -38669,7 +38669,7 @@
         <v>1430</v>
       </c>
       <c r="R517" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="518" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38713,7 +38713,7 @@
         <v>1650</v>
       </c>
       <c r="M518" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="O518" s="3" t="s">
         <v>12</v>
@@ -38725,7 +38725,7 @@
         <v>1431</v>
       </c>
       <c r="R518" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="519" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38769,7 +38769,7 @@
         <v>660</v>
       </c>
       <c r="M519" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="O519" t="s">
         <v>12</v>
@@ -38781,7 +38781,7 @@
         <v>1432</v>
       </c>
       <c r="R519" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="520" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38825,7 +38825,7 @@
         <v>4200</v>
       </c>
       <c r="M520" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="O520" s="3" t="s">
         <v>12</v>
@@ -38837,7 +38837,7 @@
         <v>1433</v>
       </c>
       <c r="R520" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="521" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38881,19 +38881,19 @@
         <v>17300</v>
       </c>
       <c r="M521" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="O521" t="s">
         <v>12</v>
       </c>
       <c r="P521" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q521" t="s">
         <v>1434</v>
       </c>
       <c r="R521" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="522" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38946,7 +38946,7 @@
         <v>520</v>
       </c>
       <c r="R522" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="523" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38990,19 +38990,19 @@
         <v>4400</v>
       </c>
       <c r="M523" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="O523" t="s">
         <v>13</v>
       </c>
       <c r="P523" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q523" t="s">
         <v>1435</v>
       </c>
       <c r="R523" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="524" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39046,19 +39046,19 @@
         <v>3450</v>
       </c>
       <c r="M524" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="O524" t="s">
         <v>13</v>
       </c>
       <c r="P524" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q524" t="s">
         <v>1436</v>
       </c>
       <c r="R524" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="525" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39102,7 +39102,7 @@
         <v>2940</v>
       </c>
       <c r="M525" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="O525" s="3" t="s">
         <v>12</v>
@@ -39114,7 +39114,7 @@
         <v>1437</v>
       </c>
       <c r="R525" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="526" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39158,7 +39158,7 @@
         <v>1640</v>
       </c>
       <c r="M526" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="O526" t="s">
         <v>12</v>
@@ -39170,7 +39170,7 @@
         <v>1438</v>
       </c>
       <c r="R526" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="527" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39219,7 +39219,7 @@
         <v>13</v>
       </c>
       <c r="P527" s="3" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q527" t="s">
         <v>163</v>
@@ -39272,7 +39272,7 @@
         <v>1440</v>
       </c>
       <c r="O528" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="P528" t="s">
         <v>901</v>
@@ -39281,7 +39281,7 @@
         <v>1441</v>
       </c>
       <c r="R528" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="529" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39325,7 +39325,7 @@
         <v>4650</v>
       </c>
       <c r="M529" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="O529" s="3" t="s">
         <v>12</v>
@@ -39337,7 +39337,7 @@
         <v>1442</v>
       </c>
       <c r="R529" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="530" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39381,7 +39381,7 @@
         <v>4100</v>
       </c>
       <c r="M530" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="O530" s="3" t="s">
         <v>12</v>
@@ -39393,7 +39393,7 @@
         <v>1443</v>
       </c>
       <c r="R530" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="531" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39437,19 +39437,19 @@
         <v>5500</v>
       </c>
       <c r="M531" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="O531" t="s">
         <v>919</v>
       </c>
       <c r="P531" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q531" t="s">
         <v>1444</v>
       </c>
       <c r="R531" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="532" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39502,7 +39502,7 @@
         <v>886</v>
       </c>
       <c r="R532" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="533" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39546,19 +39546,19 @@
         <v>3900</v>
       </c>
       <c r="M533" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="O533" t="s">
         <v>13</v>
       </c>
       <c r="P533" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q533" t="s">
         <v>1447</v>
       </c>
       <c r="R533" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="534" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39602,19 +39602,19 @@
         <v>13950</v>
       </c>
       <c r="M534" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="O534" t="s">
         <v>13</v>
       </c>
       <c r="P534" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="Q534" t="s">
         <v>1448</v>
       </c>
       <c r="R534" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="535" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39658,7 +39658,7 @@
         <v>3300</v>
       </c>
       <c r="M535" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="O535" t="s">
         <v>31</v>
@@ -39717,13 +39717,13 @@
         <v>13</v>
       </c>
       <c r="P536" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="Q536" t="s">
         <v>169</v>
       </c>
       <c r="R536" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="537" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39767,22 +39767,22 @@
         <v>3300</v>
       </c>
       <c r="M537" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="N537" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="O537" t="s">
         <v>13</v>
       </c>
       <c r="P537" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="Q537" t="s">
         <v>1466</v>
       </c>
       <c r="R537" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="538" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39831,7 +39831,7 @@
         <v>13</v>
       </c>
       <c r="P538" s="3" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="Q538" t="s">
         <v>921</v>
@@ -39881,7 +39881,7 @@
         <v>3600</v>
       </c>
       <c r="M539" s="3" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="N539" s="3"/>
       <c r="O539" s="3" t="s">
@@ -39938,14 +39938,14 @@
         <v>3600</v>
       </c>
       <c r="M540" s="3" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="N540" s="3"/>
       <c r="O540" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P540" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q540" t="s">
         <v>932</v>
@@ -39998,7 +39998,7 @@
         <v>919</v>
       </c>
       <c r="P541" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q541" t="s">
         <v>179</v>
@@ -40051,7 +40051,7 @@
         <v>13</v>
       </c>
       <c r="P542" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="Q542" t="s">
         <v>192</v>
@@ -40101,7 +40101,7 @@
         <v>2900</v>
       </c>
       <c r="M543" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="N543" s="3"/>
       <c r="O543" s="3" t="s">
@@ -40158,7 +40158,7 @@
         <v>3200</v>
       </c>
       <c r="M544" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="O544" s="3" t="s">
         <v>12</v>
@@ -40214,7 +40214,7 @@
         <v>3200</v>
       </c>
       <c r="M545" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="O545" s="3" t="s">
         <v>12</v>
@@ -40270,7 +40270,7 @@
         <v>3300</v>
       </c>
       <c r="M546" s="3" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="N546" s="3" t="s">
         <v>999</v>
@@ -40329,7 +40329,7 @@
         <v>3850</v>
       </c>
       <c r="M547" s="3" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="N547" s="3" t="s">
         <v>999</v>
@@ -40388,7 +40388,7 @@
         <v>3600</v>
       </c>
       <c r="M548" s="3" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="N548" s="3"/>
       <c r="O548" s="3" t="s">
@@ -40401,7 +40401,7 @@
         <v>1033</v>
       </c>
       <c r="R548" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="549" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40445,7 +40445,7 @@
         <v>3200</v>
       </c>
       <c r="M549" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="O549" s="3" t="s">
         <v>12</v>
@@ -40457,7 +40457,7 @@
         <v>1456</v>
       </c>
       <c r="R549" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="550" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40501,7 +40501,7 @@
         <v>4150</v>
       </c>
       <c r="M550" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="O550" s="3" t="s">
         <v>12</v>
@@ -40513,7 +40513,7 @@
         <v>1454</v>
       </c>
       <c r="R550" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="551" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40557,14 +40557,14 @@
         <v>3800</v>
       </c>
       <c r="M551" s="3" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="N551" s="3"/>
       <c r="O551" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P551" s="3" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="Q551" t="s">
         <v>995</v>
@@ -40614,7 +40614,7 @@
         <v>3800</v>
       </c>
       <c r="M552" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="N552" s="3"/>
       <c r="O552" s="3" t="s">
@@ -40671,7 +40671,7 @@
         <v>3800</v>
       </c>
       <c r="M553" s="3" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="N553" s="3"/>
       <c r="O553" s="3" t="s">
@@ -40733,7 +40733,7 @@
         <v>951</v>
       </c>
       <c r="P554" s="3" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="Q554" t="s">
         <v>948</v>
@@ -40783,7 +40783,7 @@
         <v>4000</v>
       </c>
       <c r="M555" s="3" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="N555" s="3"/>
       <c r="O555" s="3" t="s">
@@ -40840,7 +40840,7 @@
         <v>4000</v>
       </c>
       <c r="M556" s="3" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="N556" s="3"/>
       <c r="O556" s="3" t="s">
@@ -40953,7 +40953,7 @@
         <v>7000</v>
       </c>
       <c r="M558" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="O558" t="s">
         <v>13</v>
@@ -41009,7 +41009,7 @@
         <v>7000</v>
       </c>
       <c r="M559" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="O559" t="s">
         <v>31</v>
@@ -41065,7 +41065,7 @@
         <v>2600</v>
       </c>
       <c r="M560" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="O560" s="3" t="s">
         <v>12</v>
@@ -41121,7 +41121,7 @@
         <v>6450</v>
       </c>
       <c r="M561" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="O561" s="3" t="s">
         <v>12</v>
@@ -41133,7 +41133,7 @@
         <v>1468</v>
       </c>
       <c r="R561" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="562" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41183,7 +41183,7 @@
         <v>13</v>
       </c>
       <c r="P562" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="Q562" t="s">
         <v>1471</v>
@@ -41239,7 +41239,7 @@
         <v>13</v>
       </c>
       <c r="P563" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="Q563" t="s">
         <v>1473</v>
@@ -41256,7 +41256,7 @@
         <v>45</v>
       </c>
       <c r="C564" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D564" t="s">
         <v>2396</v>
@@ -41342,7 +41342,7 @@
         <v>2760</v>
       </c>
       <c r="M565" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="O565" s="3" t="s">
         <v>12</v>
@@ -41354,7 +41354,7 @@
         <v>1474</v>
       </c>
       <c r="R565" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
@@ -41398,10 +41398,10 @@
         <v>1900</v>
       </c>
       <c r="M566" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="N566" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="O566" s="3" t="s">
         <v>12</v>
@@ -41457,7 +41457,7 @@
         <v>1000</v>
       </c>
       <c r="M567" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="O567" t="s">
         <v>13</v>
@@ -41586,7 +41586,7 @@
         <v>45</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D570" t="s">
         <v>2402</v>
@@ -41681,7 +41681,7 @@
         <v>524</v>
       </c>
       <c r="R571" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
@@ -41692,7 +41692,7 @@
         <v>45</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D572" t="s">
         <v>2404</v>
@@ -41734,7 +41734,7 @@
         <v>401</v>
       </c>
       <c r="R572" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
@@ -41778,7 +41778,7 @@
         <v>450</v>
       </c>
       <c r="M573" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="O573" s="3" t="s">
         <v>12</v>
@@ -41834,7 +41834,7 @@
         <v>1500</v>
       </c>
       <c r="M574" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="O574" s="3" t="s">
         <v>12</v>
@@ -41890,7 +41890,7 @@
         <v>1500</v>
       </c>
       <c r="M575" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="O575" s="3" t="s">
         <v>12</v>
@@ -41955,7 +41955,7 @@
         <v>1482</v>
       </c>
       <c r="R576" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="577" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42008,7 +42008,7 @@
         <v>613</v>
       </c>
       <c r="R577" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="578" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42052,7 +42052,7 @@
         <v>2550</v>
       </c>
       <c r="M578" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="O578" s="3" t="s">
         <v>12</v>
@@ -42064,7 +42064,7 @@
         <v>1483</v>
       </c>
       <c r="R578" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="579" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42111,13 +42111,13 @@
         <v>1481</v>
       </c>
       <c r="P579" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="Q579" t="s">
         <v>1484</v>
       </c>
       <c r="R579" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="580" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42170,7 +42170,7 @@
         <v>615</v>
       </c>
       <c r="R580" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="581" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42214,7 +42214,7 @@
         <v>1900</v>
       </c>
       <c r="M581" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="O581" s="3" t="s">
         <v>12</v>
@@ -42226,7 +42226,7 @@
         <v>1485</v>
       </c>
       <c r="R581" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="582" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42270,7 +42270,7 @@
         <v>3400</v>
       </c>
       <c r="M582" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="O582" s="3" t="s">
         <v>12</v>
@@ -42282,7 +42282,7 @@
         <v>1487</v>
       </c>
       <c r="R582" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="583" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42326,19 +42326,19 @@
         <v>5100</v>
       </c>
       <c r="M583" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="O583" t="s">
         <v>13</v>
       </c>
       <c r="P583" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="Q583" t="s">
         <v>1489</v>
       </c>
       <c r="R583" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="584" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42382,7 +42382,7 @@
         <v>1540</v>
       </c>
       <c r="M584" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="O584" t="s">
         <v>12</v>
@@ -42394,7 +42394,7 @@
         <v>1490</v>
       </c>
       <c r="R584" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="585" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42438,7 +42438,7 @@
         <v>2480</v>
       </c>
       <c r="M585" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="O585" t="s">
         <v>12</v>
@@ -42450,7 +42450,7 @@
         <v>1490</v>
       </c>
       <c r="R585" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="586" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42503,7 +42503,7 @@
         <v>891</v>
       </c>
       <c r="R586" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="587" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42547,7 +42547,7 @@
         <v>3850</v>
       </c>
       <c r="M587" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="O587" s="3" t="s">
         <v>12</v>
@@ -42559,7 +42559,7 @@
         <v>1492</v>
       </c>
       <c r="R587" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="588" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42603,7 +42603,7 @@
         <v>6200</v>
       </c>
       <c r="M588" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="O588" s="3" t="s">
         <v>12</v>
@@ -42615,7 +42615,7 @@
         <v>1493</v>
       </c>
       <c r="R588" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="589" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42668,7 +42668,7 @@
         <v>894</v>
       </c>
       <c r="R589" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="590" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42712,22 +42712,22 @@
         <v>1000</v>
       </c>
       <c r="M590" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="N590" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="O590" t="s">
         <v>1494</v>
       </c>
       <c r="P590" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="Q590" t="s">
         <v>1495</v>
       </c>
       <c r="R590" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="591" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42780,7 +42780,7 @@
         <v>425</v>
       </c>
       <c r="R591" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
@@ -42791,13 +42791,13 @@
         <v>12</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D592" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="E592" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F592" s="5">
         <v>205</v>
@@ -42818,16 +42818,16 @@
         <v>899</v>
       </c>
       <c r="K592" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="L592" s="6">
         <v>2000</v>
       </c>
       <c r="M592" t="s">
+        <v>3029</v>
+      </c>
+      <c r="N592" t="s">
         <v>3030</v>
-      </c>
-      <c r="N592" t="s">
-        <v>3031</v>
       </c>
       <c r="O592" t="s">
         <v>12</v>
@@ -42836,10 +42836,10 @@
         <v>1240</v>
       </c>
       <c r="Q592" s="10" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="R592" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
@@ -42850,16 +42850,16 @@
         <v>12</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D593" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="E593" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="G593" s="5" t="str">
         <f t="shared" ref="G593:G594" si="33">LOWER(C593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -42877,28 +42877,28 @@
         <v>899</v>
       </c>
       <c r="K593" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="L593" s="6">
         <v>2600</v>
       </c>
       <c r="M593" t="s">
+        <v>3029</v>
+      </c>
+      <c r="N593" t="s">
         <v>3030</v>
-      </c>
-      <c r="N593" t="s">
-        <v>3031</v>
       </c>
       <c r="O593" t="s">
         <v>13</v>
       </c>
       <c r="P593" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="Q593" s="10" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="R593" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="594" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42909,13 +42909,13 @@
         <v>11</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D594" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E594" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F594" s="5">
         <v>185</v>
@@ -42936,16 +42936,16 @@
         <v>899</v>
       </c>
       <c r="K594" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="L594" s="6">
         <v>5500</v>
       </c>
       <c r="M594" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="N594" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="O594" t="s">
         <v>12</v>
@@ -42954,10 +42954,10 @@
         <v>901</v>
       </c>
       <c r="Q594" s="8" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="R594" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="595" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -42968,16 +42968,16 @@
         <v>11</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D595" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="E595" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="G595" s="5" t="str">
         <f t="shared" ref="G595:G596" si="36">LOWER(C595)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -42995,16 +42995,16 @@
         <v>899</v>
       </c>
       <c r="K595" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="L595" s="6">
         <v>9000</v>
       </c>
       <c r="M595" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="N595" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="O595" t="s">
         <v>13</v>
@@ -43013,10 +43013,10 @@
         <v>901</v>
       </c>
       <c r="Q595" s="8" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="R595" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="596" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43027,16 +43027,16 @@
         <v>11</v>
       </c>
       <c r="C596" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D596" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E596" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F596" s="5" t="s">
         <v>3060</v>
-      </c>
-      <c r="D596" t="s">
-        <v>3062</v>
-      </c>
-      <c r="E596" t="s">
-        <v>3028</v>
-      </c>
-      <c r="F596" s="5" t="s">
-        <v>3061</v>
       </c>
       <c r="G596" s="5" t="str">
         <f t="shared" si="36"/>
@@ -43054,16 +43054,16 @@
         <v>899</v>
       </c>
       <c r="K596" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="L596" s="6">
         <v>7000</v>
       </c>
       <c r="M596" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="N596" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="O596" t="s">
         <v>12</v>
@@ -43072,10 +43072,10 @@
         <v>901</v>
       </c>
       <c r="Q596" s="9" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="R596" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="597" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/update_db/product.xlsx
+++ b/update_db/product.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -18,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -9317,8 +9312,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9665,24 +9660,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K559" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2:T596"/>
+      <selection pane="bottomRight" activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -9699,7 +9694,7 @@
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>3087</v>
       </c>
@@ -9761,7 +9756,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9822,7 +9817,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9881,7 +9876,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9939,7 +9934,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9997,7 +9992,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10056,7 +10051,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10119,7 +10114,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10180,7 +10175,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10238,7 +10233,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10303,7 +10298,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10364,7 +10359,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10427,7 +10422,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10490,7 +10485,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10550,7 +10545,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10611,7 +10606,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10674,7 +10669,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10737,7 +10732,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10798,7 +10793,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10861,7 +10856,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10924,7 +10919,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10987,7 +10982,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11050,7 +11045,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11113,7 +11108,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11176,7 +11171,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11237,7 +11232,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11298,7 +11293,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11361,7 +11356,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11424,7 +11419,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11487,7 +11482,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11548,7 +11543,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11611,7 +11606,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15" customHeight="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11674,7 +11669,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11735,7 +11730,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11796,7 +11791,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15" customHeight="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11857,7 +11852,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11920,7 +11915,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11983,7 +11978,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12044,7 +12039,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12107,7 +12102,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12170,7 +12165,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15" customHeight="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12233,7 +12228,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15" customHeight="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12296,7 +12291,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12357,7 +12352,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15" customHeight="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12418,7 +12413,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15" customHeight="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12479,7 +12474,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12540,7 +12535,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15" customHeight="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12603,7 +12598,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="15" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12666,7 +12661,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12728,7 +12723,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="15" customHeight="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12790,7 +12785,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="15" customHeight="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12852,7 +12847,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="15" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12914,7 +12909,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15" customHeight="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12973,7 +12968,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15" customHeight="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13034,7 +13029,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13095,7 +13090,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15" customHeight="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13158,7 +13153,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15" customHeight="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13219,7 +13214,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15" customHeight="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13280,7 +13275,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="15" customHeight="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13341,7 +13336,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15" customHeight="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13402,7 +13397,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13465,7 +13460,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="15" customHeight="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13528,7 +13523,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15" customHeight="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13591,7 +13586,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15" customHeight="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13654,7 +13649,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15" customHeight="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13717,7 +13712,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="15" customHeight="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13780,7 +13775,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="15" customHeight="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13843,7 +13838,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15" customHeight="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13906,7 +13901,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="15" customHeight="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13969,7 +13964,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="15" customHeight="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14030,7 +14025,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="15" customHeight="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14095,7 +14090,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="15" customHeight="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14156,7 +14151,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15" customHeight="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14219,7 +14214,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14280,7 +14275,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15" customHeight="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14341,7 +14336,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15" customHeight="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14402,7 +14397,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="15" customHeight="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14467,7 +14462,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14530,7 +14525,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="15" customHeight="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14589,7 +14584,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14648,7 +14643,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14711,7 +14706,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14774,7 +14769,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="15" customHeight="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14836,7 +14831,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14901,7 +14896,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="15" customHeight="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14962,7 +14957,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="15" customHeight="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15025,7 +15020,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15086,7 +15081,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="15" customHeight="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15149,7 +15144,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="15" customHeight="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15212,7 +15207,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="15" customHeight="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15273,7 +15268,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="15" customHeight="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15336,7 +15331,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15399,7 +15394,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="15" customHeight="1">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15462,7 +15457,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="15" customHeight="1">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15523,7 +15518,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="15" customHeight="1">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15586,7 +15581,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="15" customHeight="1">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15649,7 +15644,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="15" customHeight="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15712,7 +15707,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="15" customHeight="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15775,7 +15770,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="15" customHeight="1">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15838,7 +15833,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="15" customHeight="1">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15899,7 +15894,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="15" customHeight="1">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15962,7 +15957,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="15" customHeight="1">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16025,7 +16020,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="15" customHeight="1">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16088,7 +16083,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="15" customHeight="1">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16151,7 +16146,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="15" customHeight="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16212,7 +16207,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="15" customHeight="1">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16275,7 +16270,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="15" customHeight="1">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16338,7 +16333,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="15" customHeight="1">
       <c r="A108">
         <v>107</v>
       </c>
@@ -16401,7 +16396,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="15" customHeight="1">
       <c r="A109">
         <v>108</v>
       </c>
@@ -16466,7 +16461,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="15" customHeight="1">
       <c r="A110">
         <v>109</v>
       </c>
@@ -16527,7 +16522,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="15" customHeight="1">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16590,7 +16585,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="15" customHeight="1">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16651,7 +16646,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="15" customHeight="1">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16712,7 +16707,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="15" customHeight="1">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16775,7 +16770,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="15" customHeight="1">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16838,7 +16833,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="15" customHeight="1">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16899,7 +16894,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="15" customHeight="1">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16960,7 +16955,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="15" customHeight="1">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17023,7 +17018,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="15" customHeight="1">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17084,7 +17079,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="15" customHeight="1">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17147,7 +17142,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="15" customHeight="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -17208,7 +17203,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="15" customHeight="1">
       <c r="A122">
         <v>121</v>
       </c>
@@ -17269,7 +17264,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="15" customHeight="1">
       <c r="A123">
         <v>122</v>
       </c>
@@ -17331,7 +17326,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="15" customHeight="1">
       <c r="A124">
         <v>123</v>
       </c>
@@ -17394,7 +17389,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="15" customHeight="1">
       <c r="A125">
         <v>124</v>
       </c>
@@ -17457,7 +17452,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="15" customHeight="1">
       <c r="A126">
         <v>125</v>
       </c>
@@ -17520,7 +17515,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="15" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -17583,7 +17578,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="15" customHeight="1">
       <c r="A128">
         <v>127</v>
       </c>
@@ -17642,7 +17637,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="15" customHeight="1">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17705,7 +17700,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="15" customHeight="1">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17768,7 +17763,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="15" customHeight="1">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17829,7 +17824,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="15" customHeight="1">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17890,7 +17885,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="15" customHeight="1">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17953,7 +17948,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18016,7 +18011,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18074,7 +18069,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="15" customHeight="1">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18135,7 +18130,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="15" customHeight="1">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18198,7 +18193,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="15" customHeight="1">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18261,7 +18256,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="15" customHeight="1">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18324,7 +18319,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="15" customHeight="1">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18387,7 +18382,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="15" customHeight="1">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18448,7 +18443,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="15" customHeight="1">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18511,7 +18506,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="15" customHeight="1">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18574,7 +18569,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="15" customHeight="1">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18635,7 +18630,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="15" customHeight="1">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18696,7 +18691,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="15" customHeight="1">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18757,7 +18752,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="15" customHeight="1">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18820,7 +18815,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="15" customHeight="1">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18881,7 +18876,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="15" customHeight="1">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18942,7 +18937,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="15" customHeight="1">
       <c r="A150">
         <v>149</v>
       </c>
@@ -19003,7 +18998,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="15" customHeight="1">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19064,7 +19059,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="15" customHeight="1">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19127,7 +19122,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="15" customHeight="1">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19190,7 +19185,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="15" customHeight="1">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19253,7 +19248,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="15" customHeight="1">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19314,7 +19309,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="15" customHeight="1">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19377,7 +19372,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="15" customHeight="1">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19440,7 +19435,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="15" customHeight="1">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19503,7 +19498,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="15" customHeight="1">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19564,7 +19559,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="15" customHeight="1">
       <c r="A160">
         <v>159</v>
       </c>
@@ -19627,7 +19622,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="15" customHeight="1">
       <c r="A161">
         <v>160</v>
       </c>
@@ -19688,7 +19683,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="15" customHeight="1">
       <c r="A162">
         <v>161</v>
       </c>
@@ -19751,7 +19746,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="15" customHeight="1">
       <c r="A163">
         <v>162</v>
       </c>
@@ -19814,7 +19809,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="15" customHeight="1">
       <c r="A164">
         <v>163</v>
       </c>
@@ -19875,7 +19870,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="15" customHeight="1">
       <c r="A165">
         <v>164</v>
       </c>
@@ -19936,7 +19931,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="15" customHeight="1">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19997,7 +19992,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="15" customHeight="1">
       <c r="A167">
         <v>166</v>
       </c>
@@ -20058,7 +20053,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="15" customHeight="1">
       <c r="A168">
         <v>167</v>
       </c>
@@ -20121,7 +20116,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="15" customHeight="1">
       <c r="A169">
         <v>168</v>
       </c>
@@ -20184,7 +20179,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="15" customHeight="1">
       <c r="A170">
         <v>169</v>
       </c>
@@ -20247,7 +20242,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="15" customHeight="1">
       <c r="A171">
         <v>170</v>
       </c>
@@ -20308,7 +20303,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="15" customHeight="1">
       <c r="A172">
         <v>171</v>
       </c>
@@ -20369,7 +20364,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="15" customHeight="1">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20430,7 +20425,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="15" customHeight="1">
       <c r="A174">
         <v>173</v>
       </c>
@@ -20489,7 +20484,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="15" customHeight="1">
       <c r="A175">
         <v>174</v>
       </c>
@@ -20552,7 +20547,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="15" customHeight="1">
       <c r="A176">
         <v>175</v>
       </c>
@@ -20615,7 +20610,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="15" customHeight="1">
       <c r="A177">
         <v>176</v>
       </c>
@@ -20678,7 +20673,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="15" customHeight="1">
       <c r="A178">
         <v>177</v>
       </c>
@@ -20741,7 +20736,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="15" customHeight="1">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20804,7 +20799,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="15" customHeight="1">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20867,7 +20862,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="15" customHeight="1">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20930,7 +20925,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="15" customHeight="1">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20993,7 +20988,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="15" customHeight="1">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21056,7 +21051,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="15" customHeight="1">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21115,7 +21110,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="15" customHeight="1">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21174,7 +21169,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="15" customHeight="1">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21237,7 +21232,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="15" customHeight="1">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21302,7 +21297,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="15" customHeight="1">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21367,7 +21362,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="15" customHeight="1">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21426,7 +21421,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="15" customHeight="1">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21491,7 +21486,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="15" customHeight="1">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21550,7 +21545,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="15" customHeight="1">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21613,7 +21608,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="15" customHeight="1">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21676,7 +21671,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="15" customHeight="1">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21739,7 +21734,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="15" customHeight="1">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21802,7 +21797,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="15" customHeight="1">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21865,7 +21860,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="15" customHeight="1">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21930,7 +21925,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="15" customHeight="1">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21993,7 +21988,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="15" customHeight="1">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22056,7 +22051,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="15" customHeight="1">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22119,7 +22114,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="15" customHeight="1">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22180,7 +22175,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="15" customHeight="1">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22241,7 +22236,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="15" customHeight="1">
       <c r="A203">
         <v>202</v>
       </c>
@@ -22304,7 +22299,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="15" customHeight="1">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22367,7 +22362,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="15" customHeight="1">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22429,7 +22424,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="15" customHeight="1">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22488,7 +22483,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="15" customHeight="1">
       <c r="A207">
         <v>206</v>
       </c>
@@ -22546,7 +22541,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="15" customHeight="1">
       <c r="A208">
         <v>207</v>
       </c>
@@ -22609,7 +22604,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="15" customHeight="1">
       <c r="A209">
         <v>208</v>
       </c>
@@ -22672,7 +22667,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="15" customHeight="1">
       <c r="A210">
         <v>209</v>
       </c>
@@ -22730,7 +22725,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="15" customHeight="1">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22789,7 +22784,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="15" customHeight="1">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22852,7 +22847,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="15" customHeight="1">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22914,7 +22909,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="15" customHeight="1">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22975,7 +22970,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="15" customHeight="1">
       <c r="A215">
         <v>214</v>
       </c>
@@ -23036,7 +23031,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="15" customHeight="1">
       <c r="A216">
         <v>215</v>
       </c>
@@ -23099,7 +23094,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="15" customHeight="1">
       <c r="A217">
         <v>216</v>
       </c>
@@ -23160,7 +23155,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23223,7 +23218,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="15" customHeight="1">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23286,7 +23281,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="15" customHeight="1">
       <c r="A220">
         <v>219</v>
       </c>
@@ -23349,7 +23344,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="15" customHeight="1">
       <c r="A221">
         <v>220</v>
       </c>
@@ -23412,7 +23407,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="15" customHeight="1">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23475,7 +23470,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="15" customHeight="1">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23536,7 +23531,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="15" customHeight="1">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23599,7 +23594,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="15" customHeight="1">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23662,7 +23657,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="15" customHeight="1">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23725,7 +23720,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="15" customHeight="1">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23788,7 +23783,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="15" customHeight="1">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23849,7 +23844,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="15" customHeight="1">
       <c r="A229">
         <v>228</v>
       </c>
@@ -23912,7 +23907,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="15" customHeight="1">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23975,7 +23970,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="15" customHeight="1">
       <c r="A231">
         <v>230</v>
       </c>
@@ -24038,7 +24033,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="15" customHeight="1">
       <c r="A232">
         <v>231</v>
       </c>
@@ -24101,7 +24096,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="15" customHeight="1">
       <c r="A233">
         <v>232</v>
       </c>
@@ -24164,7 +24159,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="15" customHeight="1">
       <c r="A234">
         <v>233</v>
       </c>
@@ -24227,7 +24222,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="15" customHeight="1">
       <c r="A235">
         <v>234</v>
       </c>
@@ -24290,7 +24285,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="15" customHeight="1">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24353,7 +24348,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="15" customHeight="1">
       <c r="A237">
         <v>236</v>
       </c>
@@ -24416,7 +24411,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="15" customHeight="1">
       <c r="A238">
         <v>237</v>
       </c>
@@ -24479,7 +24474,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="15" customHeight="1">
       <c r="A239">
         <v>238</v>
       </c>
@@ -24542,7 +24537,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="15" customHeight="1">
       <c r="A240">
         <v>239</v>
       </c>
@@ -24605,7 +24600,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="15" customHeight="1">
       <c r="A241">
         <v>240</v>
       </c>
@@ -24668,7 +24663,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="15" customHeight="1">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24731,7 +24726,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="15" customHeight="1">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24794,7 +24789,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="15" customHeight="1">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24857,7 +24852,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="15" customHeight="1">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24920,7 +24915,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="15" customHeight="1">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24983,7 +24978,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="15" customHeight="1">
       <c r="A247">
         <v>246</v>
       </c>
@@ -25046,7 +25041,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="15" customHeight="1">
       <c r="A248">
         <v>247</v>
       </c>
@@ -25107,7 +25102,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="15" customHeight="1">
       <c r="A249">
         <v>248</v>
       </c>
@@ -25170,7 +25165,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="15" customHeight="1">
       <c r="A250">
         <v>249</v>
       </c>
@@ -25233,7 +25228,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="15" customHeight="1">
       <c r="A251">
         <v>250</v>
       </c>
@@ -25294,7 +25289,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="15" customHeight="1">
       <c r="A252">
         <v>251</v>
       </c>
@@ -25355,7 +25350,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="15" customHeight="1">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25418,7 +25413,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="15" customHeight="1">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25481,7 +25476,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="15" customHeight="1">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25544,7 +25539,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="15" customHeight="1">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25607,7 +25602,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="15" customHeight="1">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25668,7 +25663,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="15" customHeight="1">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25729,7 +25724,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="15" customHeight="1">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25794,7 +25789,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="15" customHeight="1">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25857,7 +25852,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="15" customHeight="1">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25920,7 +25915,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="15" customHeight="1">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25983,7 +25978,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="15" customHeight="1">
       <c r="A263">
         <v>262</v>
       </c>
@@ -26044,7 +26039,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="15" customHeight="1">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26107,7 +26102,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="15" customHeight="1">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26170,7 +26165,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="15" customHeight="1">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26231,7 +26226,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="15" customHeight="1">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26294,7 +26289,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="15" customHeight="1">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26357,7 +26352,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="15" customHeight="1">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26420,7 +26415,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="15" customHeight="1">
       <c r="A270">
         <v>269</v>
       </c>
@@ -26483,7 +26478,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="15" customHeight="1">
       <c r="A271">
         <v>270</v>
       </c>
@@ -26546,7 +26541,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="15" customHeight="1">
       <c r="A272">
         <v>271</v>
       </c>
@@ -26609,7 +26604,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="15" customHeight="1">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26670,7 +26665,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="15" customHeight="1">
       <c r="A274">
         <v>273</v>
       </c>
@@ -26733,7 +26728,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="15" customHeight="1">
       <c r="A275">
         <v>274</v>
       </c>
@@ -26794,7 +26789,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="15" customHeight="1">
       <c r="A276">
         <v>275</v>
       </c>
@@ -26855,7 +26850,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="15" customHeight="1">
       <c r="A277">
         <v>276</v>
       </c>
@@ -26918,7 +26913,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="15" customHeight="1">
       <c r="A278">
         <v>277</v>
       </c>
@@ -26979,7 +26974,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="15" customHeight="1">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27042,7 +27037,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="15" customHeight="1">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27103,7 +27098,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="15" customHeight="1">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27164,7 +27159,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="15" customHeight="1">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27225,7 +27220,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="15" customHeight="1">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27288,7 +27283,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="15" customHeight="1">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27349,7 +27344,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="15" customHeight="1">
       <c r="A285">
         <v>284</v>
       </c>
@@ -27412,7 +27407,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="15" customHeight="1">
       <c r="A286">
         <v>285</v>
       </c>
@@ -27475,7 +27470,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="15" customHeight="1">
       <c r="A287">
         <v>286</v>
       </c>
@@ -27536,7 +27531,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="15" customHeight="1">
       <c r="A288">
         <v>287</v>
       </c>
@@ -27597,7 +27592,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="15" customHeight="1">
       <c r="A289">
         <v>288</v>
       </c>
@@ -27660,7 +27655,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="15" customHeight="1">
       <c r="A290">
         <v>289</v>
       </c>
@@ -27721,7 +27716,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="15" customHeight="1">
       <c r="A291">
         <v>290</v>
       </c>
@@ -27782,7 +27777,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="15" customHeight="1">
       <c r="A292">
         <v>291</v>
       </c>
@@ -27845,7 +27840,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="15" customHeight="1">
       <c r="A293">
         <v>292</v>
       </c>
@@ -27908,7 +27903,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="15" customHeight="1">
       <c r="A294">
         <v>293</v>
       </c>
@@ -27971,7 +27966,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="15" customHeight="1">
       <c r="A295">
         <v>294</v>
       </c>
@@ -28034,7 +28029,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="15" customHeight="1">
       <c r="A296">
         <v>295</v>
       </c>
@@ -28097,7 +28092,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="15" customHeight="1">
       <c r="A297">
         <v>296</v>
       </c>
@@ -28160,7 +28155,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="15" customHeight="1">
       <c r="A298">
         <v>297</v>
       </c>
@@ -28221,7 +28216,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="15" customHeight="1">
       <c r="A299">
         <v>298</v>
       </c>
@@ -28282,7 +28277,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="15" customHeight="1">
       <c r="A300">
         <v>299</v>
       </c>
@@ -28345,7 +28340,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="15" customHeight="1">
       <c r="A301">
         <v>300</v>
       </c>
@@ -28408,7 +28403,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="15" customHeight="1">
       <c r="A302">
         <v>301</v>
       </c>
@@ -28471,7 +28466,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="15" customHeight="1">
       <c r="A303">
         <v>302</v>
       </c>
@@ -28534,7 +28529,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="15" customHeight="1">
       <c r="A304">
         <v>303</v>
       </c>
@@ -28597,7 +28592,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="15" customHeight="1">
       <c r="A305">
         <v>304</v>
       </c>
@@ -28660,7 +28655,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="15" customHeight="1">
       <c r="A306">
         <v>305</v>
       </c>
@@ -28723,7 +28718,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="15" customHeight="1">
       <c r="A307">
         <v>306</v>
       </c>
@@ -28784,7 +28779,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="15" customHeight="1">
       <c r="A308">
         <v>307</v>
       </c>
@@ -28847,7 +28842,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="15" customHeight="1">
       <c r="A309">
         <v>308</v>
       </c>
@@ -28910,7 +28905,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="15" customHeight="1">
       <c r="A310">
         <v>309</v>
       </c>
@@ -28973,7 +28968,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="15" customHeight="1">
       <c r="A311">
         <v>310</v>
       </c>
@@ -29036,7 +29031,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="15" customHeight="1">
       <c r="A312">
         <v>311</v>
       </c>
@@ -29099,7 +29094,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="15" customHeight="1">
       <c r="A313">
         <v>312</v>
       </c>
@@ -29160,7 +29155,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="15" customHeight="1">
       <c r="A314">
         <v>313</v>
       </c>
@@ -29225,7 +29220,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="15" customHeight="1">
       <c r="A315">
         <v>314</v>
       </c>
@@ -29288,7 +29283,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="15" customHeight="1">
       <c r="A316">
         <v>315</v>
       </c>
@@ -29351,7 +29346,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="15" customHeight="1">
       <c r="A317">
         <v>316</v>
       </c>
@@ -29414,7 +29409,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="15" customHeight="1">
       <c r="A318">
         <v>317</v>
       </c>
@@ -29477,7 +29472,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="15" customHeight="1">
       <c r="A319">
         <v>318</v>
       </c>
@@ -29540,7 +29535,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="15" customHeight="1">
       <c r="A320">
         <v>319</v>
       </c>
@@ -29603,7 +29598,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="15" customHeight="1">
       <c r="A321">
         <v>320</v>
       </c>
@@ -29666,7 +29661,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="15" customHeight="1">
       <c r="A322">
         <v>321</v>
       </c>
@@ -29727,7 +29722,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20">
       <c r="A323">
         <v>322</v>
       </c>
@@ -29792,7 +29787,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20">
       <c r="A324">
         <v>323</v>
       </c>
@@ -29857,7 +29852,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20">
       <c r="A325">
         <v>324</v>
       </c>
@@ -29920,7 +29915,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20">
       <c r="A326">
         <v>325</v>
       </c>
@@ -29983,7 +29978,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20">
       <c r="A327">
         <v>326</v>
       </c>
@@ -30046,7 +30041,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="15" customHeight="1">
       <c r="A328">
         <v>327</v>
       </c>
@@ -30109,7 +30104,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="15" customHeight="1">
       <c r="A329">
         <v>328</v>
       </c>
@@ -30172,7 +30167,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="15" customHeight="1">
       <c r="A330">
         <v>329</v>
       </c>
@@ -30233,7 +30228,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="15" customHeight="1">
       <c r="A331">
         <v>330</v>
       </c>
@@ -30298,7 +30293,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="15" customHeight="1">
       <c r="A332">
         <v>331</v>
       </c>
@@ -30359,7 +30354,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="15" customHeight="1">
       <c r="A333">
         <v>332</v>
       </c>
@@ -30424,7 +30419,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="15" customHeight="1">
       <c r="A334">
         <v>333</v>
       </c>
@@ -30489,7 +30484,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="15" customHeight="1">
       <c r="A335">
         <v>334</v>
       </c>
@@ -30552,7 +30547,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" ht="15" customHeight="1">
       <c r="A336">
         <v>335</v>
       </c>
@@ -30613,7 +30608,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" ht="15" customHeight="1">
       <c r="A337">
         <v>336</v>
       </c>
@@ -30674,7 +30669,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" ht="15" customHeight="1">
       <c r="A338">
         <v>337</v>
       </c>
@@ -30737,7 +30732,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" ht="15" customHeight="1">
       <c r="A339">
         <v>338</v>
       </c>
@@ -30798,7 +30793,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" ht="15" customHeight="1">
       <c r="A340">
         <v>339</v>
       </c>
@@ -30861,7 +30856,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" ht="15" customHeight="1">
       <c r="A341">
         <v>340</v>
       </c>
@@ -30924,7 +30919,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" ht="15" customHeight="1">
       <c r="A342">
         <v>341</v>
       </c>
@@ -30985,7 +30980,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" ht="15" customHeight="1">
       <c r="A343">
         <v>342</v>
       </c>
@@ -31048,7 +31043,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" ht="15" customHeight="1">
       <c r="A344">
         <v>343</v>
       </c>
@@ -31111,7 +31106,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" ht="15" customHeight="1">
       <c r="A345">
         <v>344</v>
       </c>
@@ -31174,7 +31169,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" ht="15" customHeight="1">
       <c r="A346">
         <v>345</v>
       </c>
@@ -31235,7 +31230,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" ht="15" customHeight="1">
       <c r="A347">
         <v>346</v>
       </c>
@@ -31298,7 +31293,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" ht="15" customHeight="1">
       <c r="A348">
         <v>347</v>
       </c>
@@ -31361,7 +31356,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" ht="15" customHeight="1">
       <c r="A349">
         <v>348</v>
       </c>
@@ -31424,7 +31419,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" ht="15" customHeight="1">
       <c r="A350">
         <v>349</v>
       </c>
@@ -31489,7 +31484,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" ht="15" customHeight="1">
       <c r="A351">
         <v>350</v>
       </c>
@@ -31554,7 +31549,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" ht="15" customHeight="1">
       <c r="A352">
         <v>351</v>
       </c>
@@ -31615,7 +31610,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" ht="15" customHeight="1">
       <c r="A353">
         <v>352</v>
       </c>
@@ -31678,7 +31673,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" ht="15" customHeight="1">
       <c r="A354">
         <v>353</v>
       </c>
@@ -31741,7 +31736,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" ht="15" customHeight="1">
       <c r="A355">
         <v>354</v>
       </c>
@@ -31802,7 +31797,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" ht="15" customHeight="1">
       <c r="A356">
         <v>355</v>
       </c>
@@ -31861,7 +31856,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" ht="15" customHeight="1">
       <c r="A357">
         <v>356</v>
       </c>
@@ -31923,7 +31918,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" ht="15" customHeight="1">
       <c r="A358">
         <v>357</v>
       </c>
@@ -31985,7 +31980,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" ht="15" customHeight="1">
       <c r="A359">
         <v>358</v>
       </c>
@@ -32047,7 +32042,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" ht="15" customHeight="1">
       <c r="A360">
         <v>359</v>
       </c>
@@ -32109,7 +32104,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="15" customHeight="1">
       <c r="A361">
         <v>360</v>
       </c>
@@ -32171,7 +32166,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" ht="15" customHeight="1">
       <c r="A362">
         <v>361</v>
       </c>
@@ -32230,7 +32225,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" ht="15" customHeight="1">
       <c r="A363">
         <v>362</v>
       </c>
@@ -32289,7 +32284,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" ht="15" customHeight="1">
       <c r="A364">
         <v>363</v>
       </c>
@@ -32351,7 +32346,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" ht="15" customHeight="1">
       <c r="A365">
         <v>364</v>
       </c>
@@ -32410,7 +32405,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" ht="15" customHeight="1">
       <c r="A366">
         <v>365</v>
       </c>
@@ -32472,7 +32467,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" ht="15" customHeight="1">
       <c r="A367">
         <v>366</v>
       </c>
@@ -32530,7 +32525,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" ht="15" customHeight="1">
       <c r="A368">
         <v>367</v>
       </c>
@@ -32592,7 +32587,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" ht="15" customHeight="1">
       <c r="A369">
         <v>368</v>
       </c>
@@ -32654,7 +32649,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" ht="15" customHeight="1">
       <c r="A370">
         <v>369</v>
       </c>
@@ -32719,7 +32714,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" ht="15" customHeight="1">
       <c r="A371">
         <v>370</v>
       </c>
@@ -32777,7 +32772,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" ht="15" customHeight="1">
       <c r="A372">
         <v>371</v>
       </c>
@@ -32842,7 +32837,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" ht="15" customHeight="1">
       <c r="A373">
         <v>372</v>
       </c>
@@ -32901,7 +32896,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" ht="15" customHeight="1">
       <c r="A374">
         <v>373</v>
       </c>
@@ -32963,7 +32958,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" ht="15" customHeight="1">
       <c r="A375">
         <v>374</v>
       </c>
@@ -33025,7 +33020,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" ht="15" customHeight="1">
       <c r="A376">
         <v>375</v>
       </c>
@@ -33087,7 +33082,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" ht="15" customHeight="1">
       <c r="A377">
         <v>376</v>
       </c>
@@ -33146,7 +33141,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" ht="15" customHeight="1">
       <c r="A378">
         <v>377</v>
       </c>
@@ -33208,7 +33203,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" ht="15" customHeight="1">
       <c r="A379">
         <v>378</v>
       </c>
@@ -33273,7 +33268,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" ht="15" customHeight="1">
       <c r="A380">
         <v>379</v>
       </c>
@@ -33335,7 +33330,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" ht="15" customHeight="1">
       <c r="A381">
         <v>380</v>
       </c>
@@ -33397,7 +33392,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" ht="15" customHeight="1">
       <c r="A382">
         <v>381</v>
       </c>
@@ -33462,7 +33457,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" ht="15" customHeight="1">
       <c r="A383">
         <v>382</v>
       </c>
@@ -33524,7 +33519,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" ht="15" customHeight="1">
       <c r="A384">
         <v>383</v>
       </c>
@@ -33583,7 +33578,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" ht="15" customHeight="1">
       <c r="A385">
         <v>384</v>
       </c>
@@ -33648,7 +33643,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="386" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" ht="15" customHeight="1">
       <c r="A386">
         <v>385</v>
       </c>
@@ -33710,7 +33705,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="387" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" ht="15" customHeight="1">
       <c r="A387">
         <v>386</v>
       </c>
@@ -33772,7 +33767,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="388" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" ht="15" customHeight="1">
       <c r="A388">
         <v>387</v>
       </c>
@@ -33834,7 +33829,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="389" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" ht="15" customHeight="1">
       <c r="A389">
         <v>388</v>
       </c>
@@ -33896,7 +33891,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="390" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" ht="15" customHeight="1">
       <c r="A390">
         <v>389</v>
       </c>
@@ -33961,7 +33956,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="391" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" ht="15" customHeight="1">
       <c r="A391">
         <v>390</v>
       </c>
@@ -34020,7 +34015,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="392" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" ht="15" customHeight="1">
       <c r="A392">
         <v>391</v>
       </c>
@@ -34085,7 +34080,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" ht="15" customHeight="1">
       <c r="A393">
         <v>392</v>
       </c>
@@ -34147,7 +34142,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="394" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" ht="15" customHeight="1">
       <c r="A394">
         <v>393</v>
       </c>
@@ -34206,7 +34201,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="395" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" ht="15" customHeight="1">
       <c r="A395">
         <v>394</v>
       </c>
@@ -34268,7 +34263,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" ht="15" customHeight="1">
       <c r="A396">
         <v>395</v>
       </c>
@@ -34327,7 +34322,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="397" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" ht="15" customHeight="1">
       <c r="A397">
         <v>396</v>
       </c>
@@ -34389,7 +34384,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="398" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" ht="15" customHeight="1">
       <c r="A398">
         <v>397</v>
       </c>
@@ -34451,7 +34446,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="399" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" ht="15" customHeight="1">
       <c r="A399">
         <v>398</v>
       </c>
@@ -34513,7 +34508,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="400" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" ht="15" customHeight="1">
       <c r="A400">
         <v>399</v>
       </c>
@@ -34575,7 +34570,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" ht="15" customHeight="1">
       <c r="A401">
         <v>400</v>
       </c>
@@ -34637,7 +34632,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" ht="15" customHeight="1">
       <c r="A402">
         <v>401</v>
       </c>
@@ -34699,7 +34694,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" ht="15" customHeight="1">
       <c r="A403">
         <v>402</v>
       </c>
@@ -34761,7 +34756,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="404" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" ht="15" customHeight="1">
       <c r="A404">
         <v>403</v>
       </c>
@@ -34823,7 +34818,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="405" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" ht="15" customHeight="1">
       <c r="A405">
         <v>404</v>
       </c>
@@ -34885,7 +34880,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" ht="15" customHeight="1">
       <c r="A406">
         <v>405</v>
       </c>
@@ -34947,7 +34942,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="407" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" ht="15" customHeight="1">
       <c r="A407">
         <v>406</v>
       </c>
@@ -35009,7 +35004,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" ht="15" customHeight="1">
       <c r="A408">
         <v>407</v>
       </c>
@@ -35071,7 +35066,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="409" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" ht="15" customHeight="1">
       <c r="A409">
         <v>408</v>
       </c>
@@ -35133,7 +35128,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" ht="15" customHeight="1">
       <c r="A410">
         <v>409</v>
       </c>
@@ -35195,7 +35190,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" ht="15" customHeight="1">
       <c r="A411">
         <v>410</v>
       </c>
@@ -35257,7 +35252,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="412" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" ht="15" customHeight="1">
       <c r="A412">
         <v>411</v>
       </c>
@@ -35319,7 +35314,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" ht="15" customHeight="1">
       <c r="A413">
         <v>412</v>
       </c>
@@ -35381,7 +35376,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="414" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" ht="15" customHeight="1">
       <c r="A414">
         <v>413</v>
       </c>
@@ -35443,7 +35438,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" ht="15" customHeight="1">
       <c r="A415">
         <v>414</v>
       </c>
@@ -35505,7 +35500,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="416" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" ht="15" customHeight="1">
       <c r="A416">
         <v>415</v>
       </c>
@@ -35567,7 +35562,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="417" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" ht="15" customHeight="1">
       <c r="A417">
         <v>416</v>
       </c>
@@ -35629,7 +35624,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="418" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" ht="15" customHeight="1">
       <c r="A418">
         <v>417</v>
       </c>
@@ -35691,7 +35686,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="419" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" ht="15" customHeight="1">
       <c r="A419">
         <v>418</v>
       </c>
@@ -35750,7 +35745,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="420" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" ht="15" customHeight="1">
       <c r="A420">
         <v>419</v>
       </c>
@@ -35812,7 +35807,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="421" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" ht="15" customHeight="1">
       <c r="A421">
         <v>420</v>
       </c>
@@ -35874,7 +35869,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" ht="15" customHeight="1">
       <c r="A422">
         <v>421</v>
       </c>
@@ -35936,7 +35931,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" ht="15" customHeight="1">
       <c r="A423">
         <v>422</v>
       </c>
@@ -35998,7 +35993,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" ht="15" customHeight="1">
       <c r="A424">
         <v>423</v>
       </c>
@@ -36057,7 +36052,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="425" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" ht="15" customHeight="1">
       <c r="A425">
         <v>424</v>
       </c>
@@ -36119,7 +36114,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="426" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" ht="15" customHeight="1">
       <c r="A426">
         <v>425</v>
       </c>
@@ -36181,7 +36176,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="427" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" ht="15" customHeight="1">
       <c r="A427">
         <v>426</v>
       </c>
@@ -36243,7 +36238,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="428" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" ht="15" customHeight="1">
       <c r="A428">
         <v>427</v>
       </c>
@@ -36304,7 +36299,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="429" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" ht="15" customHeight="1">
       <c r="A429">
         <v>428</v>
       </c>
@@ -36366,7 +36361,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="430" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" ht="15" customHeight="1">
       <c r="A430">
         <v>429</v>
       </c>
@@ -36425,7 +36420,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="431" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" ht="15" customHeight="1">
       <c r="A431">
         <v>430</v>
       </c>
@@ -36487,7 +36482,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" ht="15" customHeight="1">
       <c r="A432">
         <v>431</v>
       </c>
@@ -36549,7 +36544,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" ht="15" customHeight="1">
       <c r="A433">
         <v>432</v>
       </c>
@@ -36611,7 +36606,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="434" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" ht="15" customHeight="1">
       <c r="A434">
         <v>433</v>
       </c>
@@ -36673,7 +36668,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="435" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" ht="15" customHeight="1">
       <c r="A435">
         <v>434</v>
       </c>
@@ -36735,7 +36730,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="436" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" ht="15" customHeight="1">
       <c r="A436">
         <v>435</v>
       </c>
@@ -36797,7 +36792,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="437" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" ht="15" customHeight="1">
       <c r="A437">
         <v>436</v>
       </c>
@@ -36859,7 +36854,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="438" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" ht="15" customHeight="1">
       <c r="A438">
         <v>437</v>
       </c>
@@ -36921,7 +36916,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="439" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" ht="15" customHeight="1">
       <c r="A439">
         <v>438</v>
       </c>
@@ -36983,7 +36978,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="440" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" ht="15" customHeight="1">
       <c r="A440">
         <v>439</v>
       </c>
@@ -37045,7 +37040,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="441" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" ht="15" customHeight="1">
       <c r="A441">
         <v>440</v>
       </c>
@@ -37107,7 +37102,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="442" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" ht="15" customHeight="1">
       <c r="A442">
         <v>441</v>
       </c>
@@ -37169,7 +37164,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="443" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" ht="15" customHeight="1">
       <c r="A443">
         <v>442</v>
       </c>
@@ -37231,7 +37226,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="444" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" ht="15" customHeight="1">
       <c r="A444">
         <v>443</v>
       </c>
@@ -37293,7 +37288,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="445" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" ht="15" customHeight="1">
       <c r="A445">
         <v>444</v>
       </c>
@@ -37355,7 +37350,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="446" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" ht="15" customHeight="1">
       <c r="A446">
         <v>445</v>
       </c>
@@ -37417,7 +37412,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="447" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" ht="15" customHeight="1">
       <c r="A447">
         <v>446</v>
       </c>
@@ -37479,7 +37474,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="448" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" ht="15" customHeight="1">
       <c r="A448">
         <v>447</v>
       </c>
@@ -37541,7 +37536,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="449" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" ht="15" customHeight="1">
       <c r="A449">
         <v>448</v>
       </c>
@@ -37603,7 +37598,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="450" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" ht="15" customHeight="1">
       <c r="A450">
         <v>449</v>
       </c>
@@ -37662,7 +37657,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="451" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" ht="15" customHeight="1">
       <c r="A451">
         <v>450</v>
       </c>
@@ -37724,7 +37719,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="452" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" ht="15" customHeight="1">
       <c r="A452">
         <v>451</v>
       </c>
@@ -37786,7 +37781,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="453" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" ht="15" customHeight="1">
       <c r="A453">
         <v>452</v>
       </c>
@@ -37845,7 +37840,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="454" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" ht="15" customHeight="1">
       <c r="A454">
         <v>453</v>
       </c>
@@ -37907,7 +37902,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="455" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" ht="15" customHeight="1">
       <c r="A455">
         <v>454</v>
       </c>
@@ -37969,7 +37964,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="456" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" ht="15" customHeight="1">
       <c r="A456">
         <v>455</v>
       </c>
@@ -38031,7 +38026,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="457" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" ht="15" customHeight="1">
       <c r="A457">
         <v>456</v>
       </c>
@@ -38093,7 +38088,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="458" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" ht="15" customHeight="1">
       <c r="A458">
         <v>457</v>
       </c>
@@ -38155,7 +38150,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="459" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" ht="15" customHeight="1">
       <c r="A459">
         <v>458</v>
       </c>
@@ -38214,7 +38209,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="460" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" ht="15" customHeight="1">
       <c r="A460">
         <v>459</v>
       </c>
@@ -38276,7 +38271,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="461" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" ht="15" customHeight="1">
       <c r="A461">
         <v>460</v>
       </c>
@@ -38338,7 +38333,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="462" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" ht="15" customHeight="1">
       <c r="A462">
         <v>461</v>
       </c>
@@ -38400,7 +38395,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="463" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" ht="15" customHeight="1">
       <c r="A463">
         <v>462</v>
       </c>
@@ -38462,7 +38457,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="464" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" ht="15" customHeight="1">
       <c r="A464">
         <v>463</v>
       </c>
@@ -38524,7 +38519,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="465" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" ht="15" customHeight="1">
       <c r="A465">
         <v>464</v>
       </c>
@@ -38586,7 +38581,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="466" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" ht="15" customHeight="1">
       <c r="A466">
         <v>465</v>
       </c>
@@ -38648,7 +38643,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="467" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" ht="15" customHeight="1">
       <c r="A467">
         <v>466</v>
       </c>
@@ -38713,7 +38708,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="468" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" ht="15" customHeight="1">
       <c r="A468">
         <v>467</v>
       </c>
@@ -38778,7 +38773,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="469" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" ht="15" customHeight="1">
       <c r="A469">
         <v>468</v>
       </c>
@@ -38840,7 +38835,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="470" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" ht="15" customHeight="1">
       <c r="A470">
         <v>469</v>
       </c>
@@ -38902,7 +38897,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="471" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" ht="15" customHeight="1">
       <c r="A471">
         <v>470</v>
       </c>
@@ -38964,7 +38959,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="472" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" ht="15" customHeight="1">
       <c r="A472">
         <v>471</v>
       </c>
@@ -39023,7 +39018,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="473" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" ht="15" customHeight="1">
       <c r="A473">
         <v>472</v>
       </c>
@@ -39082,7 +39077,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="474" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" ht="15" customHeight="1">
       <c r="A474">
         <v>473</v>
       </c>
@@ -39144,7 +39139,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="475" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" ht="15" customHeight="1">
       <c r="A475">
         <v>474</v>
       </c>
@@ -39206,7 +39201,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="476" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" ht="15" customHeight="1">
       <c r="A476">
         <v>475</v>
       </c>
@@ -39268,7 +39263,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="477" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" ht="15" customHeight="1">
       <c r="A477">
         <v>476</v>
       </c>
@@ -39330,7 +39325,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="478" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" ht="15" customHeight="1">
       <c r="A478">
         <v>477</v>
       </c>
@@ -39392,7 +39387,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="479" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" ht="15" customHeight="1">
       <c r="A479">
         <v>478</v>
       </c>
@@ -39454,7 +39449,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="480" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" ht="15" customHeight="1">
       <c r="A480">
         <v>479</v>
       </c>
@@ -39513,7 +39508,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="481" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" ht="15" customHeight="1">
       <c r="A481">
         <v>480</v>
       </c>
@@ -39575,7 +39570,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="482" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" ht="15" customHeight="1">
       <c r="A482">
         <v>481</v>
       </c>
@@ -39637,7 +39632,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="483" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" ht="15" customHeight="1">
       <c r="A483">
         <v>482</v>
       </c>
@@ -39699,7 +39694,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="484" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" ht="15" customHeight="1">
       <c r="A484">
         <v>483</v>
       </c>
@@ -39761,7 +39756,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="485" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" ht="15" customHeight="1">
       <c r="A485">
         <v>484</v>
       </c>
@@ -39820,7 +39815,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="486" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" ht="15" customHeight="1">
       <c r="A486">
         <v>485</v>
       </c>
@@ -39882,7 +39877,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="487" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" ht="15" customHeight="1">
       <c r="A487">
         <v>486</v>
       </c>
@@ -39944,7 +39939,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="488" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" ht="15" customHeight="1">
       <c r="A488">
         <v>487</v>
       </c>
@@ -40003,7 +39998,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="489" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" ht="15" customHeight="1">
       <c r="A489">
         <v>488</v>
       </c>
@@ -40062,7 +40057,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="490" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" ht="15" customHeight="1">
       <c r="A490">
         <v>489</v>
       </c>
@@ -40124,7 +40119,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="491" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" ht="15" customHeight="1">
       <c r="A491">
         <v>490</v>
       </c>
@@ -40186,7 +40181,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="492" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" ht="15" customHeight="1">
       <c r="A492">
         <v>491</v>
       </c>
@@ -40248,7 +40243,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="493" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" ht="15" customHeight="1">
       <c r="A493">
         <v>492</v>
       </c>
@@ -40310,7 +40305,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="494" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" ht="15" customHeight="1">
       <c r="A494">
         <v>493</v>
       </c>
@@ -40372,7 +40367,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="495" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" ht="15" customHeight="1">
       <c r="A495">
         <v>494</v>
       </c>
@@ -40434,7 +40429,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="496" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" ht="15" customHeight="1">
       <c r="A496">
         <v>495</v>
       </c>
@@ -40496,7 +40491,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="497" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" ht="15" customHeight="1">
       <c r="A497">
         <v>496</v>
       </c>
@@ -40558,7 +40553,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="498" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" ht="15" customHeight="1">
       <c r="A498">
         <v>497</v>
       </c>
@@ -40620,7 +40615,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="499" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" ht="15" customHeight="1">
       <c r="A499">
         <v>498</v>
       </c>
@@ -40682,7 +40677,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="500" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" ht="15" customHeight="1">
       <c r="A500">
         <v>499</v>
       </c>
@@ -40743,7 +40738,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="501" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" ht="15" customHeight="1">
       <c r="A501">
         <v>500</v>
       </c>
@@ -40805,7 +40800,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="502" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" ht="15" customHeight="1">
       <c r="A502">
         <v>501</v>
       </c>
@@ -40867,7 +40862,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="503" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" ht="15" customHeight="1">
       <c r="A503">
         <v>502</v>
       </c>
@@ -40929,7 +40924,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="504" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" ht="15" customHeight="1">
       <c r="A504">
         <v>503</v>
       </c>
@@ -40991,7 +40986,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="505" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" ht="15" customHeight="1">
       <c r="A505">
         <v>504</v>
       </c>
@@ -41053,7 +41048,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="506" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" ht="15" customHeight="1">
       <c r="A506">
         <v>505</v>
       </c>
@@ -41112,7 +41107,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="507" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" ht="15" customHeight="1">
       <c r="A507">
         <v>506</v>
       </c>
@@ -41174,7 +41169,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="508" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" ht="15" customHeight="1">
       <c r="A508">
         <v>507</v>
       </c>
@@ -41236,7 +41231,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="509" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" ht="15" customHeight="1">
       <c r="A509">
         <v>508</v>
       </c>
@@ -41297,7 +41292,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="510" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" ht="15" customHeight="1">
       <c r="A510">
         <v>509</v>
       </c>
@@ -41358,7 +41353,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="511" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" ht="15" customHeight="1">
       <c r="A511">
         <v>510</v>
       </c>
@@ -41420,7 +41415,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="512" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" ht="15" customHeight="1">
       <c r="A512">
         <v>511</v>
       </c>
@@ -41482,7 +41477,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="513" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" ht="15" customHeight="1">
       <c r="A513">
         <v>512</v>
       </c>
@@ -41544,7 +41539,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="514" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" ht="15" customHeight="1">
       <c r="A514">
         <v>513</v>
       </c>
@@ -41606,7 +41601,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="515" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" ht="15" customHeight="1">
       <c r="A515">
         <v>514</v>
       </c>
@@ -41671,7 +41666,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="516" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" ht="15" customHeight="1">
       <c r="A516">
         <v>515</v>
       </c>
@@ -41733,7 +41728,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="517" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" ht="15" customHeight="1">
       <c r="A517">
         <v>516</v>
       </c>
@@ -41795,7 +41790,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="518" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" ht="15" customHeight="1">
       <c r="A518">
         <v>517</v>
       </c>
@@ -41857,7 +41852,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="519" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" ht="15" customHeight="1">
       <c r="A519">
         <v>518</v>
       </c>
@@ -41919,7 +41914,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="520" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" ht="15" customHeight="1">
       <c r="A520">
         <v>519</v>
       </c>
@@ -41981,7 +41976,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="521" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" ht="15" customHeight="1">
       <c r="A521">
         <v>520</v>
       </c>
@@ -42043,7 +42038,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="522" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" ht="15" customHeight="1">
       <c r="A522">
         <v>521</v>
       </c>
@@ -42102,7 +42097,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="523" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" ht="15" customHeight="1">
       <c r="A523">
         <v>522</v>
       </c>
@@ -42164,7 +42159,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="524" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" ht="15" customHeight="1">
       <c r="A524">
         <v>523</v>
       </c>
@@ -42226,7 +42221,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="525" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" ht="15" customHeight="1">
       <c r="A525">
         <v>524</v>
       </c>
@@ -42288,7 +42283,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="526" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" ht="15" customHeight="1">
       <c r="A526">
         <v>525</v>
       </c>
@@ -42350,7 +42345,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="527" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" ht="15" customHeight="1">
       <c r="A527">
         <v>526</v>
       </c>
@@ -42411,7 +42406,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="528" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" ht="15" customHeight="1">
       <c r="A528">
         <v>527</v>
       </c>
@@ -42473,7 +42468,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="529" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" ht="15" customHeight="1">
       <c r="A529">
         <v>528</v>
       </c>
@@ -42535,7 +42530,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="530" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" ht="15" customHeight="1">
       <c r="A530">
         <v>529</v>
       </c>
@@ -42597,7 +42592,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="531" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" ht="15" customHeight="1">
       <c r="A531">
         <v>530</v>
       </c>
@@ -42659,7 +42654,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="532" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" ht="15" customHeight="1">
       <c r="A532">
         <v>531</v>
       </c>
@@ -42718,7 +42713,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="533" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" ht="15" customHeight="1">
       <c r="A533">
         <v>532</v>
       </c>
@@ -42780,7 +42775,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="534" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" ht="15" customHeight="1">
       <c r="A534">
         <v>533</v>
       </c>
@@ -42842,7 +42837,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="535" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" ht="15" customHeight="1">
       <c r="A535">
         <v>534</v>
       </c>
@@ -42904,7 +42899,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="536" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" ht="15" customHeight="1">
       <c r="A536">
         <v>535</v>
       </c>
@@ -42963,7 +42958,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="537" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" ht="15" customHeight="1">
       <c r="A537">
         <v>536</v>
       </c>
@@ -43028,7 +43023,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="538" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" ht="15" customHeight="1">
       <c r="A538">
         <v>537</v>
       </c>
@@ -43089,7 +43084,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="539" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" ht="15" customHeight="1">
       <c r="A539">
         <v>538</v>
       </c>
@@ -43152,7 +43147,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="540" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" ht="15" customHeight="1">
       <c r="A540">
         <v>539</v>
       </c>
@@ -43215,7 +43210,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="541" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" ht="15" customHeight="1">
       <c r="A541">
         <v>540</v>
       </c>
@@ -43274,7 +43269,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="542" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" ht="15" customHeight="1">
       <c r="A542">
         <v>541</v>
       </c>
@@ -43333,7 +43328,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="543" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" ht="15" customHeight="1">
       <c r="A543">
         <v>542</v>
       </c>
@@ -43396,7 +43391,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="544" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" ht="15" customHeight="1">
       <c r="A544">
         <v>543</v>
       </c>
@@ -43458,7 +43453,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="545" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" ht="15" customHeight="1">
       <c r="A545">
         <v>544</v>
       </c>
@@ -43520,7 +43515,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="546" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" ht="15" customHeight="1">
       <c r="A546">
         <v>545</v>
       </c>
@@ -43585,7 +43580,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="547" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" ht="15" customHeight="1">
       <c r="A547">
         <v>546</v>
       </c>
@@ -43650,7 +43645,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="548" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" ht="15" customHeight="1">
       <c r="A548">
         <v>547</v>
       </c>
@@ -43713,7 +43708,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="549" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" ht="15" customHeight="1">
       <c r="A549">
         <v>548</v>
       </c>
@@ -43775,7 +43770,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="550" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" ht="15" customHeight="1">
       <c r="A550">
         <v>549</v>
       </c>
@@ -43837,7 +43832,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="551" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" ht="15" customHeight="1">
       <c r="A551">
         <v>550</v>
       </c>
@@ -43900,7 +43895,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="552" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" ht="15" customHeight="1">
       <c r="A552">
         <v>551</v>
       </c>
@@ -43963,7 +43958,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="553" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" ht="15" customHeight="1">
       <c r="A553">
         <v>552</v>
       </c>
@@ -44026,7 +44021,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="554" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" ht="15" customHeight="1">
       <c r="A554">
         <v>553</v>
       </c>
@@ -44087,7 +44082,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="555" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" ht="15" customHeight="1">
       <c r="A555">
         <v>554</v>
       </c>
@@ -44150,7 +44145,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="556" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" ht="15" customHeight="1">
       <c r="A556">
         <v>555</v>
       </c>
@@ -44213,7 +44208,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="557" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" ht="15" customHeight="1">
       <c r="A557">
         <v>556</v>
       </c>
@@ -44275,7 +44270,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="558" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" ht="15" customHeight="1">
       <c r="A558">
         <v>557</v>
       </c>
@@ -44337,7 +44332,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="559" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" ht="15" customHeight="1">
       <c r="A559">
         <v>558</v>
       </c>
@@ -44399,7 +44394,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="560" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" ht="15" customHeight="1">
       <c r="A560">
         <v>559</v>
       </c>
@@ -44461,7 +44456,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="561" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" ht="15" customHeight="1">
       <c r="A561">
         <v>560</v>
       </c>
@@ -44523,7 +44518,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="562" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" ht="15" customHeight="1">
       <c r="A562">
         <v>561</v>
       </c>
@@ -44585,7 +44580,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="563" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" ht="15" customHeight="1">
       <c r="A563">
         <v>562</v>
       </c>
@@ -44647,7 +44642,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20">
       <c r="A564">
         <v>563</v>
       </c>
@@ -44706,7 +44701,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="565" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" ht="15" customHeight="1">
       <c r="A565">
         <v>564</v>
       </c>
@@ -44768,7 +44763,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20">
       <c r="A566">
         <v>565</v>
       </c>
@@ -44833,7 +44828,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20">
       <c r="A567">
         <v>566</v>
       </c>
@@ -44895,7 +44890,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20">
       <c r="A568">
         <v>567</v>
       </c>
@@ -44954,7 +44949,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20">
       <c r="A569">
         <v>568</v>
       </c>
@@ -45013,7 +45008,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20">
       <c r="A570">
         <v>569</v>
       </c>
@@ -45072,7 +45067,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="571" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" ht="15" customHeight="1">
       <c r="A571">
         <v>570</v>
       </c>
@@ -45131,7 +45126,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20">
       <c r="A572">
         <v>571</v>
       </c>
@@ -45190,7 +45185,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20">
       <c r="A573">
         <v>572</v>
       </c>
@@ -45252,7 +45247,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20">
       <c r="A574">
         <v>573</v>
       </c>
@@ -45314,7 +45309,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20">
       <c r="A575">
         <v>574</v>
       </c>
@@ -45376,7 +45371,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="576" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" ht="15" customHeight="1">
       <c r="A576">
         <v>575</v>
       </c>
@@ -45435,7 +45430,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="577" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" ht="15" customHeight="1">
       <c r="A577">
         <v>576</v>
       </c>
@@ -45494,7 +45489,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="578" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" ht="15" customHeight="1">
       <c r="A578">
         <v>577</v>
       </c>
@@ -45556,7 +45551,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="579" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" ht="15" customHeight="1">
       <c r="A579">
         <v>578</v>
       </c>
@@ -45615,7 +45610,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="580" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" ht="15" customHeight="1">
       <c r="A580">
         <v>579</v>
       </c>
@@ -45674,7 +45669,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="581" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" ht="15" customHeight="1">
       <c r="A581">
         <v>580</v>
       </c>
@@ -45736,7 +45731,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="582" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" ht="15" customHeight="1">
       <c r="A582">
         <v>581</v>
       </c>
@@ -45798,7 +45793,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="583" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" ht="15" customHeight="1">
       <c r="A583">
         <v>582</v>
       </c>
@@ -45860,7 +45855,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="584" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" ht="15" customHeight="1">
       <c r="A584">
         <v>583</v>
       </c>
@@ -45922,7 +45917,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="585" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" ht="15" customHeight="1">
       <c r="A585">
         <v>584</v>
       </c>
@@ -45984,7 +45979,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="586" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" ht="15" customHeight="1">
       <c r="A586">
         <v>585</v>
       </c>
@@ -46043,7 +46038,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="587" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" ht="15" customHeight="1">
       <c r="A587">
         <v>586</v>
       </c>
@@ -46105,7 +46100,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="588" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" ht="15" customHeight="1">
       <c r="A588">
         <v>587</v>
       </c>
@@ -46167,7 +46162,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="589" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" ht="15" customHeight="1">
       <c r="A589">
         <v>588</v>
       </c>
@@ -46226,7 +46221,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="590" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" ht="15" customHeight="1">
       <c r="A590">
         <v>589</v>
       </c>
@@ -46291,7 +46286,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="591" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" ht="15" customHeight="1">
       <c r="A591">
         <v>590</v>
       </c>
@@ -46350,7 +46345,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20">
       <c r="A592">
         <v>591</v>
       </c>
@@ -46415,7 +46410,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20">
       <c r="A593">
         <v>592</v>
       </c>
@@ -46480,7 +46475,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="594" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" ht="15" customHeight="1">
       <c r="A594">
         <v>593</v>
       </c>
@@ -46545,7 +46540,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="595" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" ht="15" customHeight="1">
       <c r="A595">
         <v>594</v>
       </c>
@@ -46610,7 +46605,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="596" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" ht="15" customHeight="1">
       <c r="A596">
         <v>595</v>
       </c>
@@ -46675,22 +46670,22 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="597" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="1:20" ht="15" customHeight="1"/>
+    <row r="598" spans="1:20" ht="15" customHeight="1"/>
+    <row r="599" spans="1:20" ht="15" customHeight="1"/>
+    <row r="600" spans="1:20" ht="15" customHeight="1"/>
+    <row r="601" spans="1:20" ht="15" customHeight="1"/>
+    <row r="602" spans="1:20" ht="15" customHeight="1"/>
+    <row r="603" spans="1:20" ht="15" customHeight="1"/>
+    <row r="604" spans="1:20" ht="15" customHeight="1"/>
+    <row r="605" spans="1:20" ht="15" customHeight="1"/>
+    <row r="606" spans="1:20" ht="15" customHeight="1"/>
+    <row r="607" spans="1:20" ht="15" customHeight="1"/>
+    <row r="608" spans="1:20" ht="15" customHeight="1"/>
+    <row r="609" ht="15" customHeight="1"/>
+    <row r="610" ht="15" customHeight="1"/>
+    <row r="611" ht="15" customHeight="1"/>
+    <row r="612" ht="15" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:T1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
